--- a/Género/El Salvador/LOCALIZA_SV.xlsx
+++ b/Género/El Salvador/LOCALIZA_SV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\El Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38857D5B-D1F9-43A1-A0DF-A0600EAA101B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5906135-2589-477C-B67F-4C412D4262E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="272">
   <si>
     <t>NOM_DPTO</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>NOM_MUN</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Acajutla</t>
@@ -1264,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454E5203-1221-4CEF-8979-BC0E3FCEE1BC}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,10 +1315,10 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2">
         <v>-89.850516999999996</v>
@@ -1347,10 +1344,10 @@
         <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>-89.225031000000001</v>
@@ -1376,10 +1373,10 @@
         <v>601</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4">
         <v>-89.197367</v>
@@ -1405,10 +1402,10 @@
         <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5">
         <v>-89.853200000000001</v>
@@ -1434,10 +1431,10 @@
         <v>1101</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F6">
         <v>-88.490513000000007</v>
@@ -1463,10 +1460,10 @@
         <v>1401</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7">
         <v>-87.888739999999999</v>
@@ -1492,10 +1489,10 @@
         <v>501</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>-89.252049999999997</v>
@@ -1521,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9">
         <v>-89.800151999999997</v>
@@ -1550,10 +1547,10 @@
         <v>1001</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10">
         <v>-88.653989999999993</v>
@@ -1579,10 +1576,10 @@
         <v>602</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11">
         <v>-89.196949000000004</v>
@@ -1608,10 +1605,10 @@
         <v>1301</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F12">
         <v>-88.113326000000001</v>
@@ -1637,10 +1634,10 @@
         <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>-88.750325000000004</v>
@@ -1666,10 +1663,10 @@
         <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14">
         <v>-89.503541999999996</v>
@@ -1695,10 +1692,10 @@
         <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15">
         <v>-89.742380999999995</v>
@@ -1724,10 +1721,10 @@
         <v>603</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16">
         <v>-89.19614</v>
@@ -1753,10 +1750,10 @@
         <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>-88.987532000000002</v>
@@ -1782,10 +1779,10 @@
         <v>1102</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F18">
         <v>-88.591356000000005</v>
@@ -1811,10 +1808,10 @@
         <v>1402</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19">
         <v>-87.949792000000002</v>
@@ -1840,10 +1837,10 @@
         <v>1302</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20">
         <v>-88.054334999999995</v>
@@ -1869,10 +1866,10 @@
         <v>1103</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F21">
         <v>-88.458568</v>
@@ -1898,10 +1895,10 @@
         <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22">
         <v>-89.637906000000001</v>
@@ -1927,10 +1924,10 @@
         <v>427</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>-88.837242000000003</v>
@@ -1956,10 +1953,10 @@
         <v>701</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F24">
         <v>-88.983258000000006</v>
@@ -1985,10 +1982,10 @@
         <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25">
         <v>-89.637433999999999</v>
@@ -2014,10 +2011,10 @@
         <v>1201</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26">
         <v>-88.309945999999997</v>
@@ -2043,10 +2040,10 @@
         <v>407</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27">
         <v>-88.996733000000006</v>
@@ -2072,10 +2069,10 @@
         <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28">
         <v>-89.655743999999999</v>
@@ -2101,10 +2098,10 @@
         <v>1204</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29">
         <v>-88.273900999999995</v>
@@ -2130,10 +2127,10 @@
         <v>1304</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F30">
         <v>-88.158133000000007</v>
@@ -2159,10 +2156,10 @@
         <v>505</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31">
         <v>-89.463980000000006</v>
@@ -2188,10 +2185,10 @@
         <v>1205</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>-88.339223000000004</v>
@@ -2217,10 +2214,10 @@
         <v>1206</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F33">
         <v>-88.129050000000007</v>
@@ -2246,10 +2243,10 @@
         <v>901</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F34">
         <v>-88.965069</v>
@@ -2275,10 +2272,10 @@
         <v>404</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>-89.262702000000004</v>
@@ -2304,10 +2301,10 @@
         <v>502</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36">
         <v>-89.423992999999996</v>
@@ -2333,10 +2330,10 @@
         <v>1202</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F37">
         <v>-88.290623999999994</v>
@@ -2362,10 +2359,10 @@
         <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38">
         <v>-89.467168999999998</v>
@@ -2391,10 +2388,10 @@
         <v>702</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F39">
         <v>-88.942417000000006</v>
@@ -2420,10 +2417,10 @@
         <v>503</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40">
         <v>-89.359532000000002</v>
@@ -2449,10 +2446,10 @@
         <v>1203</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41">
         <v>-88.058049999999994</v>
@@ -2478,10 +2475,10 @@
         <v>405</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42">
         <v>-88.967517999999998</v>
@@ -2507,10 +2504,10 @@
         <v>504</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43">
         <v>-89.365226000000007</v>
@@ -2536,10 +2533,10 @@
         <v>1104</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F44">
         <v>-88.350859999999997</v>
@@ -2565,10 +2562,10 @@
         <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F45">
         <v>-89.85821</v>
@@ -2594,10 +2591,10 @@
         <v>1403</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F46">
         <v>-87.745835999999997</v>
@@ -2623,10 +2620,10 @@
         <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47">
         <v>-88.949224000000001</v>
@@ -2652,10 +2649,10 @@
         <v>1404</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F48">
         <v>-87.880917999999994</v>
@@ -2681,10 +2678,10 @@
         <v>1303</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F49">
         <v>-87.976284000000007</v>
@@ -2710,10 +2707,10 @@
         <v>304</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50">
         <v>-89.635454999999993</v>
@@ -2739,10 +2736,10 @@
         <v>604</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F51">
         <v>-89.180302999999995</v>
@@ -2768,10 +2765,10 @@
         <v>801</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F52">
         <v>-89.091189</v>
@@ -2797,10 +2794,10 @@
         <v>619</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53">
         <v>-89.160325</v>
@@ -2826,10 +2823,10 @@
         <v>1305</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F54">
         <v>-88.146944000000005</v>
@@ -2855,10 +2852,10 @@
         <v>909</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F55">
         <v>-88.555087999999998</v>
@@ -2884,10 +2881,10 @@
         <v>408</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56">
         <v>-88.995496000000003</v>
@@ -2913,10 +2910,10 @@
         <v>703</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F57">
         <v>-88.905925999999994</v>
@@ -2942,10 +2939,10 @@
         <v>1405</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F58">
         <v>-87.992841999999996</v>
@@ -2971,10 +2968,10 @@
         <v>409</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59">
         <v>-88.909699000000003</v>
@@ -3000,10 +2997,10 @@
         <v>204</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F60">
         <v>-89.513373999999999</v>
@@ -3029,10 +3026,10 @@
         <v>1306</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F61">
         <v>-88.083719000000002</v>
@@ -3058,10 +3055,10 @@
         <v>605</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F62">
         <v>-89.219438999999994</v>
@@ -3087,10 +3084,10 @@
         <v>410</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63">
         <v>-89.086605000000006</v>
@@ -3116,10 +3113,10 @@
         <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F64">
         <v>-89.646394000000001</v>
@@ -3145,10 +3142,10 @@
         <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F65">
         <v>-89.710341</v>
@@ -3174,10 +3171,10 @@
         <v>704</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F66">
         <v>-88.904557999999994</v>
@@ -3203,10 +3200,10 @@
         <v>802</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F67">
         <v>-89.004977999999994</v>
@@ -3232,10 +3229,10 @@
         <v>1307</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F68">
         <v>-88.199566000000004</v>
@@ -3261,10 +3258,10 @@
         <v>1406</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F69">
         <v>-87.797155000000004</v>
@@ -3290,10 +3287,10 @@
         <v>1207</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F70">
         <v>-88.271995000000004</v>
@@ -3319,10 +3316,10 @@
         <v>1105</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F71">
         <v>-88.411833999999999</v>
@@ -3348,10 +3345,10 @@
         <v>1106</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72">
         <v>-88.380346000000003</v>
@@ -3377,10 +3374,10 @@
         <v>1107</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F73">
         <v>-88.516465999999994</v>
@@ -3406,10 +3403,10 @@
         <v>902</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F74">
         <v>-88.652651000000006</v>
@@ -3435,10 +3432,10 @@
         <v>1002</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F75">
         <v>-88.867095000000006</v>
@@ -3464,10 +3461,10 @@
         <v>1308</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F76">
         <v>-88.203720000000004</v>
@@ -3493,10 +3490,10 @@
         <v>1309</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F77">
         <v>-88.224378000000002</v>
@@ -3522,10 +3519,10 @@
         <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F78">
         <v>-89.857664</v>
@@ -3551,10 +3548,10 @@
         <v>606</v>
       </c>
       <c r="D79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F79">
         <v>-89.166498000000004</v>
@@ -3580,10 +3577,10 @@
         <v>506</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F80">
         <v>-89.242549999999994</v>
@@ -3609,10 +3606,10 @@
         <v>903</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F81">
         <v>-88.819658000000004</v>
@@ -3638,10 +3635,10 @@
         <v>607</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F82">
         <v>-89.095429999999993</v>
@@ -3667,10 +3664,10 @@
         <v>1407</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F83">
         <v>-88.034446000000003</v>
@@ -3696,10 +3693,10 @@
         <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F84">
         <v>-89.628241000000003</v>
@@ -3725,10 +3722,10 @@
         <v>507</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F85">
         <v>-89.444360000000003</v>
@@ -3754,10 +3751,10 @@
         <v>803</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F86">
         <v>-88.912621999999999</v>
@@ -3783,10 +3780,10 @@
         <v>508</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F87">
         <v>-89.516374999999996</v>
@@ -3812,10 +3809,10 @@
         <v>1108</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F88">
         <v>-88.663499999999999</v>
@@ -3841,10 +3838,10 @@
         <v>1310</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F89">
         <v>-88.063986</v>
@@ -3870,10 +3867,10 @@
         <v>1311</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F90">
         <v>-88.161929999999998</v>
@@ -3899,10 +3896,10 @@
         <v>1312</v>
       </c>
       <c r="D91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F91">
         <v>-88.013986000000003</v>
@@ -3928,10 +3925,10 @@
         <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F92">
         <v>-89.718169000000003</v>
@@ -3957,10 +3954,10 @@
         <v>1109</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F93">
         <v>-88.405134000000004</v>
@@ -3986,10 +3983,10 @@
         <v>1110</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F94">
         <v>-88.250601000000003</v>
@@ -4015,10 +4012,10 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F95">
         <v>-89.938175999999999</v>
@@ -4044,10 +4041,10 @@
         <v>904</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F96">
         <v>-88.878798000000003</v>
@@ -4073,10 +4070,10 @@
         <v>411</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97">
         <v>-88.924912000000006</v>
@@ -4102,10 +4099,10 @@
         <v>509</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F98">
         <v>-89.259011999999998</v>
@@ -4131,10 +4128,10 @@
         <v>412</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99">
         <v>-89.170011000000002</v>
@@ -4160,10 +4157,10 @@
         <v>413</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100">
         <v>-89.148579999999995</v>
@@ -4189,10 +4186,10 @@
         <v>1408</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F101">
         <v>-87.952781000000002</v>
@@ -4218,10 +4215,10 @@
         <v>428</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102">
         <v>-88.836509000000007</v>
@@ -4247,10 +4244,10 @@
         <v>414</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103">
         <v>-88.883808000000002</v>
@@ -4276,10 +4273,10 @@
         <v>1409</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F104">
         <v>-87.908061000000004</v>
@@ -4305,10 +4302,10 @@
         <v>1208</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105">
         <v>-88.348808000000005</v>
@@ -4334,10 +4331,10 @@
         <v>1313</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F106">
         <v>-88.077990999999997</v>
@@ -4363,10 +4360,10 @@
         <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F107">
         <v>-89.415676000000005</v>
@@ -4392,10 +4389,10 @@
         <v>1314</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F108">
         <v>-88.130511999999996</v>
@@ -4421,10 +4418,10 @@
         <v>1410</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F109">
         <v>-87.711618999999999</v>
@@ -4450,10 +4447,10 @@
         <v>608</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F110">
         <v>-89.218783999999999</v>
@@ -4479,10 +4476,10 @@
         <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F111">
         <v>-88.914023</v>
@@ -4508,10 +4505,10 @@
         <v>1111</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F112">
         <v>-88.509255999999993</v>
@@ -4537,10 +4534,10 @@
         <v>207</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F113">
         <v>-89.425162</v>
@@ -4566,10 +4563,10 @@
         <v>1209</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F114">
         <v>-88.266186000000005</v>
@@ -4595,10 +4592,10 @@
         <v>705</v>
       </c>
       <c r="D115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F115">
         <v>-88.942791</v>
@@ -4624,10 +4621,10 @@
         <v>308</v>
       </c>
       <c r="D116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F116">
         <v>-89.707802999999998</v>
@@ -4653,10 +4650,10 @@
         <v>309</v>
       </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F117">
         <v>-89.721718999999993</v>
@@ -4682,10 +4679,10 @@
         <v>609</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F118">
         <v>-89.226279000000005</v>
@@ -4711,10 +4708,10 @@
         <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119">
         <v>-88.726536999999993</v>
@@ -4740,10 +4737,10 @@
         <v>416</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F120">
         <v>-89.307117000000005</v>
@@ -4769,10 +4766,10 @@
         <v>1411</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F121">
         <v>-87.843498999999994</v>
@@ -4798,10 +4795,10 @@
         <v>1112</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F122">
         <v>-88.453950000000006</v>
@@ -4827,10 +4824,10 @@
         <v>1210</v>
       </c>
       <c r="D123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F123">
         <v>-88.317250999999999</v>
@@ -4856,10 +4853,10 @@
         <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F124">
         <v>-88.800203999999994</v>
@@ -4885,10 +4882,10 @@
         <v>510</v>
       </c>
       <c r="D125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F125">
         <v>-89.265745999999993</v>
@@ -4914,10 +4911,10 @@
         <v>1211</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F126">
         <v>-88.476602999999997</v>
@@ -4943,10 +4940,10 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F127">
         <v>-88.866651000000005</v>
@@ -4972,10 +4969,10 @@
         <v>805</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F128">
         <v>-89.127092000000005</v>
@@ -5001,10 +4998,10 @@
         <v>706</v>
       </c>
       <c r="D129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F129">
         <v>-89.055097000000004</v>
@@ -5030,10 +5027,10 @@
         <v>1315</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F130">
         <v>-88.166284000000005</v>
@@ -5059,10 +5056,10 @@
         <v>1113</v>
       </c>
       <c r="D131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F131">
         <v>-88.513363999999996</v>
@@ -5088,10 +5085,10 @@
         <v>610</v>
       </c>
       <c r="D132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F132">
         <v>-89.158613000000003</v>
@@ -5117,10 +5114,10 @@
         <v>806</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F133">
         <v>-88.962057000000001</v>
@@ -5146,10 +5143,10 @@
         <v>1412</v>
       </c>
       <c r="D134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F134">
         <v>-87.759748999999999</v>
@@ -5175,10 +5172,10 @@
         <v>1316</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F135">
         <v>-88.157449</v>
@@ -5204,10 +5201,10 @@
         <v>1413</v>
       </c>
       <c r="D136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F136">
         <v>-87.797545999999997</v>
@@ -5233,10 +5230,10 @@
         <v>419</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137">
         <v>-88.899195000000006</v>
@@ -5262,10 +5259,10 @@
         <v>1114</v>
       </c>
       <c r="D138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F138">
         <v>-88.596295999999995</v>
@@ -5291,10 +5288,10 @@
         <v>1212</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F139">
         <v>-88.229388999999998</v>
@@ -5320,10 +5317,10 @@
         <v>512</v>
       </c>
       <c r="D140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F140">
         <v>-89.274473</v>
@@ -5349,10 +5346,10 @@
         <v>611</v>
       </c>
       <c r="D141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F141">
         <v>-89.206269000000006</v>
@@ -5378,10 +5375,10 @@
         <v>513</v>
       </c>
       <c r="D142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F142">
         <v>-89.448562999999993</v>
@@ -5407,10 +5404,10 @@
         <v>310</v>
       </c>
       <c r="D143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F143">
         <v>-89.758402000000004</v>
@@ -5436,10 +5433,10 @@
         <v>1115</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F144">
         <v>-88.583121000000006</v>
@@ -5465,10 +5462,10 @@
         <v>1414</v>
       </c>
       <c r="D145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F145">
         <v>-87.913860999999997</v>
@@ -5494,10 +5491,10 @@
         <v>1213</v>
       </c>
       <c r="D146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F146">
         <v>-88.271687</v>
@@ -5523,10 +5520,10 @@
         <v>420</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F147">
         <v>-88.776737999999995</v>
@@ -5552,10 +5549,10 @@
         <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F148">
         <v>-89.755437000000001</v>
@@ -5581,10 +5578,10 @@
         <v>421</v>
       </c>
       <c r="D149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149">
         <v>-88.893593999999993</v>
@@ -5610,10 +5607,10 @@
         <v>807</v>
       </c>
       <c r="D150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F150">
         <v>-89.021506000000002</v>
@@ -5639,10 +5636,10 @@
         <v>208</v>
       </c>
       <c r="D151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F151">
         <v>-89.555002000000002</v>
@@ -5668,10 +5665,10 @@
         <v>707</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F152">
         <v>-89.062254999999993</v>
@@ -5697,10 +5694,10 @@
         <v>1116</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F153">
         <v>-88.401769000000002</v>
@@ -5726,10 +5723,10 @@
         <v>1317</v>
       </c>
       <c r="D154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F154">
         <v>-88.113983000000005</v>
@@ -5755,10 +5752,10 @@
         <v>1003</v>
       </c>
       <c r="D155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F155">
         <v>-88.814712999999998</v>
@@ -5784,10 +5781,10 @@
         <v>708</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F156">
         <v>-88.896704</v>
@@ -5813,10 +5810,10 @@
         <v>1117</v>
       </c>
       <c r="D157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F157">
         <v>-88.454494999999994</v>
@@ -5842,10 +5839,10 @@
         <v>808</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F158">
         <v>-88.991506000000001</v>
@@ -5871,10 +5868,10 @@
         <v>1006</v>
       </c>
       <c r="D159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F159">
         <v>-88.743388999999993</v>
@@ -5900,10 +5897,10 @@
         <v>422</v>
       </c>
       <c r="D160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160">
         <v>-89.042102999999997</v>
@@ -5929,10 +5926,10 @@
         <v>1318</v>
       </c>
       <c r="D161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E161" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F161">
         <v>-88.202786000000003</v>
@@ -5958,10 +5955,10 @@
         <v>809</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E162" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F162">
         <v>-89.072963000000001</v>
@@ -5987,10 +5984,10 @@
         <v>1319</v>
       </c>
       <c r="D163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E163" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F163">
         <v>-88.089684000000005</v>
@@ -6016,10 +6013,10 @@
         <v>1119</v>
       </c>
       <c r="D164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E164" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F164">
         <v>-88.570736999999994</v>
@@ -6045,10 +6042,10 @@
         <v>423</v>
       </c>
       <c r="D165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F165">
         <v>-89.007048999999995</v>
@@ -6074,10 +6071,10 @@
         <v>108</v>
       </c>
       <c r="D166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E166" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F166">
         <v>-90.034263999999993</v>
@@ -6103,10 +6100,10 @@
         <v>424</v>
       </c>
       <c r="D167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F167">
         <v>-89.055942999999999</v>
@@ -6132,10 +6129,10 @@
         <v>1214</v>
       </c>
       <c r="D168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F168">
         <v>-88.410641999999996</v>
@@ -6161,10 +6158,10 @@
         <v>425</v>
       </c>
       <c r="D169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F169">
         <v>-89.154038999999997</v>
@@ -6190,10 +6187,10 @@
         <v>1007</v>
       </c>
       <c r="D170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F170">
         <v>-88.562343999999996</v>
@@ -6219,10 +6216,10 @@
         <v>905</v>
       </c>
       <c r="D171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F171">
         <v>-88.707115999999999</v>
@@ -6248,10 +6245,10 @@
         <v>1320</v>
       </c>
       <c r="D172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F172">
         <v>-88.240140999999994</v>
@@ -6277,10 +6274,10 @@
         <v>426</v>
       </c>
       <c r="D173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173">
         <v>-88.832695999999999</v>
@@ -6306,10 +6303,10 @@
         <v>1215</v>
       </c>
       <c r="D174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F174">
         <v>-88.332666000000003</v>
@@ -6335,10 +6332,10 @@
         <v>1415</v>
       </c>
       <c r="D175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F175">
         <v>-87.899052999999995</v>
@@ -6364,10 +6361,10 @@
         <v>709</v>
       </c>
       <c r="D176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F176">
         <v>-89.096007999999998</v>
@@ -6393,10 +6390,10 @@
         <v>514</v>
       </c>
       <c r="D177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F177">
         <v>-89.270752999999999</v>
@@ -6422,10 +6419,10 @@
         <v>810</v>
       </c>
       <c r="D178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F178">
         <v>-88.921234999999996</v>
@@ -6451,10 +6448,10 @@
         <v>515</v>
       </c>
       <c r="D179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F179">
         <v>-89.414230000000003</v>
@@ -6480,10 +6477,10 @@
         <v>811</v>
       </c>
       <c r="D180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F180">
         <v>-89.090385999999995</v>
@@ -6509,10 +6506,10 @@
         <v>812</v>
       </c>
       <c r="D181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F181">
         <v>-88.994270999999998</v>
@@ -6538,10 +6535,10 @@
         <v>312</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F182">
         <v>-89.562236999999996</v>
@@ -6567,10 +6564,10 @@
         <v>109</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F183">
         <v>-89.792312999999993</v>
@@ -6596,10 +6593,10 @@
         <v>1008</v>
       </c>
       <c r="D184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F184">
         <v>-88.817677000000003</v>
@@ -6625,10 +6622,10 @@
         <v>1216</v>
       </c>
       <c r="D185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F185">
         <v>-88.355680000000007</v>
@@ -6654,10 +6651,10 @@
         <v>429</v>
       </c>
       <c r="D186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F186">
         <v>-88.966695000000001</v>
@@ -6683,10 +6680,10 @@
         <v>822</v>
       </c>
       <c r="D187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F187">
         <v>-88.913365999999996</v>
@@ -6712,10 +6709,10 @@
         <v>813</v>
       </c>
       <c r="D188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E188" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F188">
         <v>-89.092581999999993</v>
@@ -6741,10 +6738,10 @@
         <v>612</v>
       </c>
       <c r="D189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F189">
         <v>-89.175399999999996</v>
@@ -6770,10 +6767,10 @@
         <v>613</v>
       </c>
       <c r="D190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F190">
         <v>-89.061976999999999</v>
@@ -6799,10 +6796,10 @@
         <v>516</v>
       </c>
       <c r="D191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E191" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F191">
         <v>-89.306303999999997</v>
@@ -6828,10 +6825,10 @@
         <v>1217</v>
       </c>
       <c r="D192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F192">
         <v>-88.157652999999996</v>
@@ -6857,10 +6854,10 @@
         <v>430</v>
       </c>
       <c r="D193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F193">
         <v>-88.934590999999998</v>
@@ -6886,10 +6883,10 @@
         <v>814</v>
       </c>
       <c r="D194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E194" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F194">
         <v>-89.019837999999993</v>
@@ -6915,10 +6912,10 @@
         <v>517</v>
       </c>
       <c r="D195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E195" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F195">
         <v>-89.330748999999997</v>
@@ -6944,10 +6941,10 @@
         <v>815</v>
       </c>
       <c r="D196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E196" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F196">
         <v>-89.028349000000006</v>
@@ -6973,10 +6970,10 @@
         <v>816</v>
       </c>
       <c r="D197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E197" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F197">
         <v>-88.934841000000006</v>
@@ -7002,10 +6999,10 @@
         <v>710</v>
       </c>
       <c r="D198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E198" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F198">
         <v>-89.015210999999994</v>
@@ -7031,10 +7028,10 @@
         <v>110</v>
       </c>
       <c r="D199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E199" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F199">
         <v>-89.806254999999993</v>
@@ -7060,10 +7057,10 @@
         <v>431</v>
       </c>
       <c r="D200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F200">
         <v>-89.043177999999997</v>
@@ -7089,10 +7086,10 @@
         <v>711</v>
       </c>
       <c r="D201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E201" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F201">
         <v>-88.877313999999998</v>
@@ -7118,10 +7115,10 @@
         <v>817</v>
       </c>
       <c r="D202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F202">
         <v>-88.921728999999999</v>
@@ -7147,10 +7144,10 @@
         <v>1218</v>
       </c>
       <c r="D203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F203">
         <v>-88.353688000000005</v>
@@ -7176,10 +7173,10 @@
         <v>712</v>
       </c>
       <c r="D204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E204" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F204">
         <v>-88.927884000000006</v>
@@ -7205,10 +7202,10 @@
         <v>614</v>
       </c>
       <c r="D205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F205">
         <v>-89.215541999999999</v>
@@ -7234,10 +7231,10 @@
         <v>1009</v>
       </c>
       <c r="D206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F206">
         <v>-88.812614999999994</v>
@@ -7263,10 +7260,10 @@
         <v>209</v>
       </c>
       <c r="D207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F207">
         <v>-89.637238999999994</v>
@@ -7292,10 +7289,10 @@
         <v>1321</v>
       </c>
       <c r="D208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E208" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F208">
         <v>-88.235798000000003</v>
@@ -7321,10 +7318,10 @@
         <v>1010</v>
       </c>
       <c r="D209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F209">
         <v>-88.716740000000001</v>
@@ -7350,10 +7347,10 @@
         <v>210</v>
       </c>
       <c r="D210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F210">
         <v>-89.548679000000007</v>
@@ -7379,10 +7376,10 @@
         <v>313</v>
       </c>
       <c r="D211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F211">
         <v>-89.773240999999999</v>
@@ -7408,10 +7405,10 @@
         <v>1004</v>
       </c>
       <c r="D212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F212">
         <v>-88.664876000000007</v>
@@ -7437,10 +7434,10 @@
         <v>713</v>
       </c>
       <c r="D213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F213">
         <v>-88.956652000000005</v>
@@ -7466,10 +7463,10 @@
         <v>714</v>
       </c>
       <c r="D214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F214">
         <v>-88.971269000000007</v>
@@ -7495,10 +7492,10 @@
         <v>1118</v>
       </c>
       <c r="D215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E215" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F215">
         <v>-88.415029000000004</v>
@@ -7524,10 +7521,10 @@
         <v>305</v>
       </c>
       <c r="D216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E216" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F216">
         <v>-89.594312000000002</v>
@@ -7553,10 +7550,10 @@
         <v>1120</v>
       </c>
       <c r="D217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E217" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F217">
         <v>-88.407577000000003</v>
@@ -7582,10 +7579,10 @@
         <v>818</v>
       </c>
       <c r="D218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E218" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F218">
         <v>-88.926603</v>
@@ -7611,10 +7608,10 @@
         <v>432</v>
       </c>
       <c r="D219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F219">
         <v>-89.019508000000002</v>
@@ -7640,10 +7637,10 @@
         <v>1416</v>
       </c>
       <c r="D220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E220" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F220">
         <v>-87.90307</v>
@@ -7669,10 +7666,10 @@
         <v>211</v>
       </c>
       <c r="D221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E221" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F221">
         <v>-89.341721000000007</v>
@@ -7698,10 +7695,10 @@
         <v>511</v>
       </c>
       <c r="D222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E222" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F222">
         <v>-89.309415000000001</v>
@@ -7727,10 +7724,10 @@
         <v>212</v>
       </c>
       <c r="D223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E223" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F223">
         <v>-89.622512999999998</v>
@@ -7756,10 +7753,10 @@
         <v>1121</v>
       </c>
       <c r="D224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E224" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F224">
         <v>-88.452633000000006</v>
@@ -7785,10 +7782,10 @@
         <v>819</v>
       </c>
       <c r="D225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E225" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F225">
         <v>-88.954757999999998</v>
@@ -7814,10 +7811,10 @@
         <v>615</v>
       </c>
       <c r="D226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E226" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F226">
         <v>-89.095039999999997</v>
@@ -7843,10 +7840,10 @@
         <v>1005</v>
       </c>
       <c r="D227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E227" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F227">
         <v>-88.854667000000006</v>
@@ -7872,10 +7869,10 @@
         <v>314</v>
       </c>
       <c r="D228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F228">
         <v>-89.797787</v>
@@ -7901,10 +7898,10 @@
         <v>616</v>
       </c>
       <c r="D229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E229" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F229">
         <v>-89.143264000000002</v>
@@ -7930,10 +7927,10 @@
         <v>1322</v>
       </c>
       <c r="D230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E230" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F230">
         <v>-88.151544999999999</v>
@@ -7959,10 +7956,10 @@
         <v>906</v>
       </c>
       <c r="D231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E231" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F231">
         <v>-88.576347999999996</v>
@@ -7988,10 +7985,10 @@
         <v>1219</v>
       </c>
       <c r="D232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E232" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F232">
         <v>-88.390704999999997</v>
@@ -8017,10 +8014,10 @@
         <v>1323</v>
       </c>
       <c r="D233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E233" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F233">
         <v>-87.995634999999993</v>
@@ -8046,10 +8043,10 @@
         <v>315</v>
       </c>
       <c r="D234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F234">
         <v>-89.761364</v>
@@ -8075,10 +8072,10 @@
         <v>316</v>
       </c>
       <c r="D235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F235">
         <v>-89.715070999999995</v>
@@ -8104,10 +8101,10 @@
         <v>617</v>
       </c>
       <c r="D236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E236" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F236">
         <v>-89.143426000000005</v>
@@ -8133,10 +8130,10 @@
         <v>715</v>
       </c>
       <c r="D237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E237" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F237">
         <v>-89.072587999999996</v>
@@ -8162,10 +8159,10 @@
         <v>111</v>
       </c>
       <c r="D238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E238" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F238">
         <v>-89.951562999999993</v>
@@ -8191,10 +8188,10 @@
         <v>519</v>
       </c>
       <c r="D239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E239" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F239">
         <v>-89.396244999999993</v>
@@ -8220,10 +8217,10 @@
         <v>518</v>
       </c>
       <c r="D240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E240" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F240">
         <v>-89.412458999999998</v>
@@ -8249,10 +8246,10 @@
         <v>820</v>
       </c>
       <c r="D241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E241" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F241">
         <v>-89.067274999999995</v>
@@ -8278,10 +8275,10 @@
         <v>1122</v>
       </c>
       <c r="D242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E242" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F242">
         <v>-88.505747999999997</v>
@@ -8307,10 +8304,10 @@
         <v>1011</v>
       </c>
       <c r="D243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E243" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F243">
         <v>-88.767298999999994</v>
@@ -8336,10 +8333,10 @@
         <v>907</v>
       </c>
       <c r="D244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E244" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F244">
         <v>-88.918094999999994</v>
@@ -8365,10 +8362,10 @@
         <v>433</v>
       </c>
       <c r="D245" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F245">
         <v>-89.122792000000004</v>
@@ -8394,10 +8391,10 @@
         <v>716</v>
       </c>
       <c r="D246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E246" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F246">
         <v>-88.972037</v>
@@ -8423,10 +8420,10 @@
         <v>520</v>
       </c>
       <c r="D247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E247" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F247">
         <v>-89.543379999999999</v>
@@ -8452,10 +8449,10 @@
         <v>521</v>
       </c>
       <c r="D248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E248" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F248">
         <v>-89.489044000000007</v>
@@ -8481,10 +8478,10 @@
         <v>1012</v>
       </c>
       <c r="D249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E249" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F249">
         <v>-88.839862999999994</v>
@@ -8510,10 +8507,10 @@
         <v>213</v>
       </c>
       <c r="D250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E250" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F250">
         <v>-89.493753999999996</v>
@@ -8539,10 +8536,10 @@
         <v>618</v>
       </c>
       <c r="D251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E251" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F251">
         <v>-89.118837999999997</v>
@@ -8568,10 +8565,10 @@
         <v>1324</v>
       </c>
       <c r="D252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E252" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F252">
         <v>-88.227382000000006</v>
@@ -8597,10 +8594,10 @@
         <v>112</v>
       </c>
       <c r="D253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E253" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F253">
         <v>-89.774410000000003</v>
@@ -8626,10 +8623,10 @@
         <v>1220</v>
       </c>
       <c r="D254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E254" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F254">
         <v>-88.059788999999995</v>
@@ -8655,10 +8652,10 @@
         <v>1123</v>
       </c>
       <c r="D255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E255" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F255">
         <v>-88.482439999999997</v>
@@ -8684,10 +8681,10 @@
         <v>1013</v>
       </c>
       <c r="D256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E256" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F256">
         <v>-88.871512999999993</v>
@@ -8713,10 +8710,10 @@
         <v>908</v>
       </c>
       <c r="D257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E257" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F257">
         <v>-88.643268000000006</v>
@@ -8742,10 +8739,10 @@
         <v>1325</v>
       </c>
       <c r="D258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E258" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F258">
         <v>-88.176061000000004</v>
@@ -8771,10 +8768,10 @@
         <v>1417</v>
       </c>
       <c r="D259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E259" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F259">
         <v>-88.020249000000007</v>
@@ -8800,10 +8797,10 @@
         <v>1326</v>
       </c>
       <c r="D260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E260" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F260">
         <v>-88.132830999999996</v>
@@ -8829,10 +8826,10 @@
         <v>1418</v>
       </c>
       <c r="D261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E261" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F261">
         <v>-87.997708000000003</v>
@@ -8858,10 +8855,10 @@
         <v>821</v>
       </c>
       <c r="D262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E262" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F262">
         <v>-88.850763000000001</v>
@@ -8887,10 +8884,10 @@
         <v>522</v>
       </c>
       <c r="D263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E263" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F263">
         <v>-89.297370000000001</v>
@@ -8909,17 +8906,17 @@
       <c r="A264" t="s">
         <v>5</v>
       </c>
-      <c r="B264" t="s">
-        <v>8</v>
-      </c>
-      <c r="C264" t="s">
-        <v>8</v>
+      <c r="B264">
+        <v>9</v>
+      </c>
+      <c r="C264">
+        <v>999</v>
       </c>
       <c r="D264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E264" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="F264">
         <v>-88.144026999999994</v>

--- a/Género/El Salvador/LOCALIZA_SV.xlsx
+++ b/Género/El Salvador/LOCALIZA_SV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\El Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5906135-2589-477C-B67F-4C412D4262E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3891D38-DCCB-4E1B-8B5A-46320EA45326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
   </bookViews>
@@ -1261,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454E5203-1221-4CEF-8979-BC0E3FCEE1BC}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>

--- a/Género/El Salvador/LOCALIZA_SV.xlsx
+++ b/Género/El Salvador/LOCALIZA_SV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\El Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3891D38-DCCB-4E1B-8B5A-46320EA45326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6440C4C9-2667-42B4-AF13-FDE499DAE84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
   </bookViews>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L242" sqref="L242"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Género/El Salvador/LOCALIZA_SV.xlsx
+++ b/Género/El Salvador/LOCALIZA_SV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\El Salvador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\El Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6440C4C9-2667-42B4-AF13-FDE499DAE84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0BAC7-84E0-49A1-A041-AA833BB73689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{393D6D33-CDAD-437A-BD54-D73D92EF9CA1}" name="Tabla2" displayName="Tabla2" ref="A1:G264" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G264" xr:uid="{5405F881-E00B-489D-BA3C-0FB5BB60FC40}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G264">
-    <sortCondition ref="D1:D264"/>
+    <sortCondition ref="C2:C264"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{24B4DABE-EB75-464D-8D60-2955E68AAB9A}" name="País"/>
@@ -1262,21 +1262,21 @@
   <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,27 +1304,27 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>301</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="F2">
-        <v>-89.850516999999996</v>
+        <v>-89.853200000000001</v>
       </c>
       <c r="G2">
-        <v>13.63714</v>
+        <v>13.962388000000001</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
@@ -1333,27 +1333,27 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>401</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="F3">
-        <v>-89.225031000000001</v>
+        <v>-89.800151999999997</v>
       </c>
       <c r="G3">
-        <v>14.200329999999999</v>
+        <v>13.852631000000001</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
@@ -1362,27 +1362,27 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>601</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="F4">
-        <v>-89.197367</v>
+        <v>-89.742380999999995</v>
       </c>
       <c r="G4">
-        <v>13.955029</v>
+        <v>13.961067</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -1391,7 +1391,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1399,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>265</v>
       </c>
       <c r="F5">
-        <v>-89.853200000000001</v>
+        <v>-89.85821</v>
       </c>
       <c r="G5">
-        <v>13.962388000000001</v>
+        <v>13.847091000000001</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
@@ -1420,27 +1420,27 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1101</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6">
-        <v>-88.490513000000007</v>
+        <v>-89.710341</v>
       </c>
       <c r="G6">
-        <v>13.507989999999999</v>
+        <v>13.987083</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
@@ -1449,27 +1449,27 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>1401</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7">
-        <v>-87.888739999999999</v>
+        <v>-89.857664</v>
       </c>
       <c r="G7">
-        <v>13.732329999999999</v>
+        <v>13.726392000000001</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
@@ -1478,27 +1478,27 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>501</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="F8">
-        <v>-89.252049999999997</v>
+        <v>-89.938175999999999</v>
       </c>
       <c r="G8">
-        <v>13.670337999999999</v>
+        <v>13.748404000000001</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
@@ -1507,7 +1507,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1515,19 +1515,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>265</v>
       </c>
       <c r="F9">
-        <v>-89.800151999999997</v>
+        <v>-90.034263999999993</v>
       </c>
       <c r="G9">
-        <v>13.852631000000001</v>
+        <v>13.808198000000001</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
@@ -1536,27 +1536,27 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1001</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="F10">
-        <v>-88.653989999999993</v>
+        <v>-89.792312999999993</v>
       </c>
       <c r="G10">
-        <v>13.661255000000001</v>
+        <v>14.020670000000001</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -1565,27 +1565,27 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>602</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="F11">
-        <v>-89.196949000000004</v>
+        <v>-89.806254999999993</v>
       </c>
       <c r="G11">
-        <v>13.799424999999999</v>
+        <v>13.773635000000001</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1594,27 +1594,27 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1301</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F12">
-        <v>-88.113326000000001</v>
+        <v>-89.951562999999993</v>
       </c>
       <c r="G12">
-        <v>13.950165999999999</v>
+        <v>13.893211000000001</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1623,27 +1623,27 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>402</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="F13">
-        <v>-88.750325000000004</v>
+        <v>-89.774410000000003</v>
       </c>
       <c r="G13">
-        <v>14.07959</v>
+        <v>13.962699000000001</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1652,27 +1652,27 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F14">
-        <v>-89.503541999999996</v>
+        <v>-89.637433999999999</v>
       </c>
       <c r="G14">
-        <v>13.761907000000001</v>
+        <v>14.114318000000001</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1681,27 +1681,27 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="F15">
-        <v>-89.742380999999995</v>
+        <v>-89.467168999999998</v>
       </c>
       <c r="G15">
-        <v>13.961067</v>
+        <v>13.926416</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1710,27 +1710,27 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>603</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F16">
-        <v>-89.19614</v>
+        <v>-89.655743999999999</v>
       </c>
       <c r="G16">
-        <v>13.751976000000001</v>
+        <v>13.933751000000001</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
@@ -1739,27 +1739,27 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="F17">
-        <v>-88.987532000000002</v>
+        <v>-89.513373999999999</v>
       </c>
       <c r="G17">
-        <v>13.992614</v>
+        <v>13.848032999999999</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
@@ -1768,27 +1768,27 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1102</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="F18">
-        <v>-88.591356000000005</v>
+        <v>-89.646394000000001</v>
       </c>
       <c r="G18">
-        <v>13.540543</v>
+        <v>14.039427999999999</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
@@ -1797,27 +1797,27 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1402</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="F19">
-        <v>-87.949792000000002</v>
+        <v>-89.415676000000005</v>
       </c>
       <c r="G19">
-        <v>13.55925</v>
+        <v>14.166651</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
@@ -1826,27 +1826,27 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1302</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="F20">
-        <v>-88.054334999999995</v>
+        <v>-89.425162</v>
       </c>
       <c r="G20">
-        <v>13.806561</v>
+        <v>14.314647000000001</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
@@ -1855,27 +1855,27 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1103</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="F21">
-        <v>-88.458568</v>
+        <v>-89.555002000000002</v>
       </c>
       <c r="G21">
-        <v>13.445586</v>
+        <v>14.18805</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
@@ -1884,27 +1884,27 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F22">
-        <v>-89.637906000000001</v>
+        <v>-89.637238999999994</v>
       </c>
       <c r="G22">
-        <v>13.704211000000001</v>
+        <v>13.972355</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
@@ -1913,27 +1913,27 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>427</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="F23">
-        <v>-88.837242000000003</v>
+        <v>-89.548679000000007</v>
       </c>
       <c r="G23">
-        <v>13.977231</v>
+        <v>13.97744</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
@@ -1942,27 +1942,27 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>701</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="F24">
-        <v>-88.983258000000006</v>
+        <v>-89.341721000000007</v>
       </c>
       <c r="G24">
-        <v>13.682031</v>
+        <v>14.189595000000001</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
@@ -1971,7 +1971,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1979,19 +1979,19 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
         <v>210</v>
       </c>
       <c r="F25">
-        <v>-89.637433999999999</v>
+        <v>-89.622512999999998</v>
       </c>
       <c r="G25">
-        <v>14.114318000000001</v>
+        <v>14.173164999999999</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
@@ -2000,27 +2000,27 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1201</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F26">
-        <v>-88.309945999999997</v>
+        <v>-89.493753999999996</v>
       </c>
       <c r="G26">
-        <v>13.85852</v>
+        <v>14.117232</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
@@ -2029,27 +2029,27 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="F27">
-        <v>-88.996733000000006</v>
+        <v>-89.850516999999996</v>
       </c>
       <c r="G27">
-        <v>14.046775</v>
+        <v>13.63714</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
@@ -2058,27 +2058,27 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="F28">
-        <v>-89.655743999999999</v>
+        <v>-89.503541999999996</v>
       </c>
       <c r="G28">
-        <v>13.933751000000001</v>
+        <v>13.761907000000001</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
@@ -2087,27 +2087,27 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1204</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F29">
-        <v>-88.273900999999995</v>
+        <v>-89.637906000000001</v>
       </c>
       <c r="G29">
-        <v>13.633615000000001</v>
+        <v>13.704211000000001</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
@@ -2116,27 +2116,27 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>1304</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="F30">
-        <v>-88.158133000000007</v>
+        <v>-89.635454999999993</v>
       </c>
       <c r="G30">
-        <v>13.733219999999999</v>
+        <v>13.62411</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="3"/>
@@ -2145,27 +2145,27 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="F31">
-        <v>-89.463980000000006</v>
+        <v>-89.594312000000002</v>
       </c>
       <c r="G31">
-        <v>13.563901</v>
+        <v>13.591691000000001</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
@@ -2174,27 +2174,27 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>1205</v>
+        <v>306</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F32">
-        <v>-88.339223000000004</v>
+        <v>-89.628241000000003</v>
       </c>
       <c r="G32">
-        <v>13.479277</v>
+        <v>13.770898000000001</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
@@ -2203,27 +2203,27 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1206</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F33">
-        <v>-88.129050000000007</v>
+        <v>-89.718169000000003</v>
       </c>
       <c r="G33">
-        <v>13.262335</v>
+        <v>13.865441000000001</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
@@ -2232,27 +2232,27 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>901</v>
+        <v>308</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="F34">
-        <v>-88.965069</v>
+        <v>-89.707802999999998</v>
       </c>
       <c r="G34">
-        <v>13.885799</v>
+        <v>13.799927</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
@@ -2261,27 +2261,27 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="F35">
-        <v>-89.262702000000004</v>
+        <v>-89.721718999999993</v>
       </c>
       <c r="G35">
-        <v>14.374373</v>
+        <v>13.667832000000001</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
@@ -2290,27 +2290,27 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>502</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="F36">
-        <v>-89.423992999999996</v>
+        <v>-89.758402000000004</v>
       </c>
       <c r="G36">
-        <v>13.814253000000001</v>
+        <v>13.82826</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
@@ -2319,27 +2319,27 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1202</v>
+        <v>311</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F37">
-        <v>-88.290623999999994</v>
+        <v>-89.755437000000001</v>
       </c>
       <c r="G37">
-        <v>13.757982</v>
+        <v>13.714938</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
@@ -2348,27 +2348,27 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="F38">
-        <v>-89.467168999999998</v>
+        <v>-89.562236999999996</v>
       </c>
       <c r="G38">
-        <v>13.926416</v>
+        <v>13.704753999999999</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
@@ -2377,27 +2377,27 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>702</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="F39">
-        <v>-88.942417000000006</v>
+        <v>-89.773240999999999</v>
       </c>
       <c r="G39">
-        <v>13.718187</v>
+        <v>13.784274999999999</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
@@ -2406,27 +2406,27 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>503</v>
+        <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="F40">
-        <v>-89.359532000000002</v>
+        <v>-89.797787</v>
       </c>
       <c r="G40">
-        <v>13.723934</v>
+        <v>13.715138</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="3"/>
@@ -2435,27 +2435,27 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>1203</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F41">
-        <v>-88.058049999999994</v>
+        <v>-89.761364</v>
       </c>
       <c r="G41">
-        <v>13.535539999999999</v>
+        <v>13.607746000000001</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="3"/>
@@ -2464,27 +2464,27 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="F42">
-        <v>-88.967517999999998</v>
+        <v>-89.715070999999995</v>
       </c>
       <c r="G42">
-        <v>14.155586</v>
+        <v>13.733936</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="3"/>
@@ -2493,27 +2493,27 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F43">
-        <v>-89.365226000000007</v>
+        <v>-89.225031000000001</v>
       </c>
       <c r="G43">
-        <v>13.607131000000001</v>
+        <v>14.200329999999999</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="3"/>
@@ -2522,27 +2522,27 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>1104</v>
+        <v>402</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="F44">
-        <v>-88.350859999999997</v>
+        <v>-88.750325000000004</v>
       </c>
       <c r="G44">
-        <v>13.287991999999999</v>
+        <v>14.07959</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="3"/>
@@ -2551,27 +2551,27 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>104</v>
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>403</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="F45">
-        <v>-89.85821</v>
+        <v>-88.987532000000002</v>
       </c>
       <c r="G45">
-        <v>13.847091000000001</v>
+        <v>13.992614</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="3"/>
@@ -2580,27 +2580,27 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>1403</v>
+        <v>404</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="F46">
-        <v>-87.745835999999997</v>
+        <v>-89.262702000000004</v>
       </c>
       <c r="G46">
-        <v>13.785883</v>
+        <v>14.374373</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="3"/>
@@ -2609,7 +2609,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2617,19 +2617,19 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
       </c>
       <c r="F47">
-        <v>-88.949224000000001</v>
+        <v>-88.967517999999998</v>
       </c>
       <c r="G47">
-        <v>14.099023000000001</v>
+        <v>14.155586</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="3"/>
@@ -2638,27 +2638,27 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>1404</v>
+        <v>406</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="F48">
-        <v>-87.880917999999994</v>
+        <v>-88.949224000000001</v>
       </c>
       <c r="G48">
-        <v>13.27913</v>
+        <v>14.099023000000001</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="3"/>
@@ -2667,27 +2667,27 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>1303</v>
+        <v>407</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="F49">
-        <v>-87.976284000000007</v>
+        <v>-88.996733000000006</v>
       </c>
       <c r="G49">
-        <v>13.819467</v>
+        <v>14.046775</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="3"/>
@@ -2696,27 +2696,27 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="F50">
-        <v>-89.635454999999993</v>
+        <v>-88.995496000000003</v>
       </c>
       <c r="G50">
-        <v>13.62411</v>
+        <v>14.200869000000001</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="3"/>
@@ -2725,27 +2725,27 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>604</v>
+        <v>409</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="F51">
-        <v>-89.180302999999995</v>
+        <v>-88.909699000000003</v>
       </c>
       <c r="G51">
-        <v>13.776092</v>
+        <v>14.177555999999999</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="3"/>
@@ -2754,27 +2754,27 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>801</v>
+        <v>410</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="F52">
-        <v>-89.091189</v>
+        <v>-89.086605000000006</v>
       </c>
       <c r="G52">
-        <v>13.53767</v>
+        <v>14.091552</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="3"/>
@@ -2783,27 +2783,27 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>619</v>
+        <v>411</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="F53">
-        <v>-89.160325</v>
+        <v>-88.924912000000006</v>
       </c>
       <c r="G53">
-        <v>13.755153999999999</v>
+        <v>14.144793</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="3"/>
@@ -2812,27 +2812,27 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>1305</v>
+        <v>412</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="F54">
-        <v>-88.146944000000005</v>
+        <v>-89.170011000000002</v>
       </c>
       <c r="G54">
-        <v>13.785527</v>
+        <v>14.292484999999999</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="3"/>
@@ -2841,27 +2841,27 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>909</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="F55">
-        <v>-88.555087999999998</v>
+        <v>-89.148579999999995</v>
       </c>
       <c r="G55">
-        <v>13.809269</v>
+        <v>14.224978</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="3"/>
@@ -2870,7 +2870,7 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2878,19 +2878,19 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
       </c>
       <c r="F56">
-        <v>-88.995496000000003</v>
+        <v>-88.883808000000002</v>
       </c>
       <c r="G56">
-        <v>14.200869000000001</v>
+        <v>14.094718</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="3"/>
@@ -2899,27 +2899,27 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>703</v>
+        <v>415</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="F57">
-        <v>-88.905925999999994</v>
+        <v>-88.726536999999993</v>
       </c>
       <c r="G57">
-        <v>13.732532000000001</v>
+        <v>14.02219</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="3"/>
@@ -2928,27 +2928,27 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>1405</v>
+        <v>416</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="F58">
-        <v>-87.992841999999996</v>
+        <v>-89.307117000000005</v>
       </c>
       <c r="G58">
-        <v>13.317375999999999</v>
+        <v>14.110260999999999</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="3"/>
@@ -2957,7 +2957,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2965,19 +2965,19 @@
         <v>4</v>
       </c>
       <c r="C59">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
         <v>33</v>
       </c>
       <c r="F59">
-        <v>-88.909699000000003</v>
+        <v>-88.800203999999994</v>
       </c>
       <c r="G59">
-        <v>14.177555999999999</v>
+        <v>14.076162</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="3"/>
@@ -2986,27 +2986,27 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>204</v>
+        <v>418</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="F60">
-        <v>-89.513373999999999</v>
+        <v>-88.866651000000005</v>
       </c>
       <c r="G60">
-        <v>13.848032999999999</v>
+        <v>14.134334000000001</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="3"/>
@@ -3015,27 +3015,27 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>1306</v>
+        <v>419</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="F61">
-        <v>-88.083719000000002</v>
+        <v>-88.899195000000006</v>
       </c>
       <c r="G61">
-        <v>13.591760000000001</v>
+        <v>13.959758000000001</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="3"/>
@@ -3044,27 +3044,27 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>605</v>
+        <v>420</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="F62">
-        <v>-89.219438999999994</v>
+        <v>-88.776737999999995</v>
       </c>
       <c r="G62">
-        <v>14.008475000000001</v>
+        <v>14.014642</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="3"/>
@@ -3073,7 +3073,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3081,19 +3081,19 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
         <v>33</v>
       </c>
       <c r="F63">
-        <v>-89.086605000000006</v>
+        <v>-88.893593999999993</v>
       </c>
       <c r="G63">
-        <v>14.091552</v>
+        <v>14.001675000000001</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="3"/>
@@ -3102,27 +3102,27 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>205</v>
+        <v>422</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="F64">
-        <v>-89.646394000000001</v>
+        <v>-89.042102999999997</v>
       </c>
       <c r="G64">
-        <v>14.039427999999999</v>
+        <v>14.302222</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="3"/>
@@ -3131,27 +3131,27 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>423</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="F65">
-        <v>-89.710341</v>
+        <v>-89.007048999999995</v>
       </c>
       <c r="G65">
-        <v>13.987083</v>
+        <v>13.972424999999999</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="3"/>
@@ -3160,27 +3160,27 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>704</v>
+        <v>424</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="F66">
-        <v>-88.904557999999994</v>
+        <v>-89.055942999999999</v>
       </c>
       <c r="G66">
-        <v>13.773213999999999</v>
+        <v>14.219716999999999</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="3"/>
@@ -3189,27 +3189,27 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>802</v>
+        <v>425</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="F67">
-        <v>-89.004977999999994</v>
+        <v>-89.154038999999997</v>
       </c>
       <c r="G67">
-        <v>13.469091000000001</v>
+        <v>14.343374000000001</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="3"/>
@@ -3218,27 +3218,27 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>1307</v>
+        <v>426</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="F68">
-        <v>-88.199566000000004</v>
+        <v>-88.832695999999999</v>
       </c>
       <c r="G68">
-        <v>13.866830999999999</v>
+        <v>14.012031</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="3"/>
@@ -3247,27 +3247,27 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>1406</v>
+        <v>427</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="F69">
-        <v>-87.797155000000004</v>
+        <v>-88.837242000000003</v>
       </c>
       <c r="G69">
-        <v>13.671422</v>
+        <v>13.977231</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="3"/>
@@ -3276,27 +3276,27 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>1207</v>
+        <v>428</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>-88.271995000000004</v>
+        <v>-88.836509000000007</v>
       </c>
       <c r="G70">
-        <v>13.348979</v>
+        <v>14.053934</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="3"/>
@@ -3305,27 +3305,27 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>1105</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="F71">
-        <v>-88.411833999999999</v>
+        <v>-88.966695000000001</v>
       </c>
       <c r="G71">
-        <v>13.608250999999999</v>
+        <v>13.963430000000001</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="3"/>
@@ -3334,27 +3334,27 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>1106</v>
+        <v>430</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="F72">
-        <v>-88.380346000000003</v>
+        <v>-88.934590999999998</v>
       </c>
       <c r="G72">
-        <v>13.350289</v>
+        <v>13.99752</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
@@ -3363,27 +3363,27 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>1107</v>
+        <v>431</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E73" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>-88.516465999999994</v>
+        <v>-89.043177999999997</v>
       </c>
       <c r="G73">
-        <v>13.624159000000001</v>
+        <v>14.123768</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="3"/>
@@ -3392,27 +3392,27 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>902</v>
+        <v>432</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>-88.652651000000006</v>
+        <v>-89.019508000000002</v>
       </c>
       <c r="G74">
-        <v>13.865202</v>
+        <v>14.090287</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="3"/>
@@ -3421,27 +3421,27 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>1002</v>
+        <v>433</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>-88.867095000000006</v>
+        <v>-89.122792000000004</v>
       </c>
       <c r="G75">
-        <v>13.615411</v>
+        <v>14.147575</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="3"/>
@@ -3450,27 +3450,27 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>1308</v>
+        <v>501</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="F76">
-        <v>-88.203720000000004</v>
+        <v>-89.252049999999997</v>
       </c>
       <c r="G76">
-        <v>13.808695999999999</v>
+        <v>13.670337999999999</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3"/>
@@ -3479,27 +3479,27 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>1309</v>
+        <v>502</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="F77">
-        <v>-88.224378000000002</v>
+        <v>-89.423992999999996</v>
       </c>
       <c r="G77">
-        <v>13.681922999999999</v>
+        <v>13.814253000000001</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="3"/>
@@ -3508,27 +3508,27 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>503</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="F78">
-        <v>-89.857664</v>
+        <v>-89.359532000000002</v>
       </c>
       <c r="G78">
-        <v>13.726392000000001</v>
+        <v>13.723934</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="3"/>
@@ -3537,27 +3537,27 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>606</v>
+        <v>504</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="F79">
-        <v>-89.166498000000004</v>
+        <v>-89.365226000000007</v>
       </c>
       <c r="G79">
-        <v>13.897197</v>
+        <v>13.607131000000001</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="3"/>
@@ -3566,7 +3566,7 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3574,19 +3574,19 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
         <v>101</v>
       </c>
       <c r="F80">
-        <v>-89.242549999999994</v>
+        <v>-89.463980000000006</v>
       </c>
       <c r="G80">
-        <v>13.575124000000001</v>
+        <v>13.563901</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="3"/>
@@ -3595,27 +3595,27 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>903</v>
+        <v>506</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="F81">
-        <v>-88.819658000000004</v>
+        <v>-89.242549999999994</v>
       </c>
       <c r="G81">
-        <v>13.845948</v>
+        <v>13.575124000000001</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="3"/>
@@ -3624,27 +3624,27 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>607</v>
+        <v>507</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="F82">
-        <v>-89.095429999999993</v>
+        <v>-89.444360000000003</v>
       </c>
       <c r="G82">
-        <v>13.692344</v>
+        <v>13.679819</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="3"/>
@@ -3653,27 +3653,27 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>1407</v>
+        <v>508</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="F83">
-        <v>-88.034446000000003</v>
+        <v>-89.516374999999996</v>
       </c>
       <c r="G83">
-        <v>13.204611</v>
+        <v>13.534036</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="3"/>
@@ -3682,27 +3682,27 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>306</v>
+        <v>509</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="F84">
-        <v>-89.628241000000003</v>
+        <v>-89.259011999999998</v>
       </c>
       <c r="G84">
-        <v>13.770898000000001</v>
+        <v>13.487665</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="3"/>
@@ -3711,7 +3711,7 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3719,19 +3719,19 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E85" t="s">
         <v>101</v>
       </c>
       <c r="F85">
-        <v>-89.444360000000003</v>
+        <v>-89.265745999999993</v>
       </c>
       <c r="G85">
-        <v>13.679819</v>
+        <v>13.643090000000001</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="3"/>
@@ -3740,27 +3740,27 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>803</v>
+        <v>511</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="F86">
-        <v>-88.912621999999999</v>
+        <v>-89.309415000000001</v>
       </c>
       <c r="G86">
-        <v>13.658393999999999</v>
+        <v>13.647899000000001</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="3"/>
@@ -3769,7 +3769,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3777,19 +3777,19 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
         <v>101</v>
       </c>
       <c r="F87">
-        <v>-89.516374999999996</v>
+        <v>-89.274473</v>
       </c>
       <c r="G87">
-        <v>13.534036</v>
+        <v>13.848269</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="3"/>
@@ -3798,27 +3798,27 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>1108</v>
+        <v>513</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="F88">
-        <v>-88.663499999999999</v>
+        <v>-89.448562999999993</v>
       </c>
       <c r="G88">
-        <v>13.319293999999999</v>
+        <v>13.736713999999999</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="3"/>
@@ -3827,27 +3827,27 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>1310</v>
+        <v>514</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="F89">
-        <v>-88.063986</v>
+        <v>-89.270752999999999</v>
       </c>
       <c r="G89">
-        <v>13.893283</v>
+        <v>13.558661000000001</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="3"/>
@@ -3856,27 +3856,27 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>1311</v>
+        <v>515</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="F90">
-        <v>-88.161929999999998</v>
+        <v>-89.414230000000003</v>
       </c>
       <c r="G90">
-        <v>13.901446</v>
+        <v>13.899158999999999</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="3"/>
@@ -3885,27 +3885,27 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>1312</v>
+        <v>516</v>
       </c>
       <c r="D91" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="F91">
-        <v>-88.013986000000003</v>
+        <v>-89.306303999999997</v>
       </c>
       <c r="G91">
-        <v>13.617787</v>
+        <v>13.899663</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="3"/>
@@ -3914,27 +3914,27 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>307</v>
+        <v>517</v>
       </c>
       <c r="D92" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="F92">
-        <v>-89.718169000000003</v>
+        <v>-89.330748999999997</v>
       </c>
       <c r="G92">
-        <v>13.865441000000001</v>
+        <v>13.999613</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="3"/>
@@ -3943,27 +3943,27 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>1109</v>
+        <v>518</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="F93">
-        <v>-88.405134000000004</v>
+        <v>-89.412458999999998</v>
       </c>
       <c r="G93">
-        <v>13.503441</v>
+        <v>13.566088000000001</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="3"/>
@@ -3972,27 +3972,27 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>1110</v>
+        <v>519</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="F94">
-        <v>-88.250601000000003</v>
+        <v>-89.396244999999993</v>
       </c>
       <c r="G94">
-        <v>13.219759</v>
+        <v>13.675077999999999</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="3"/>
@@ -4001,27 +4001,27 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>520</v>
       </c>
       <c r="D95" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="F95">
-        <v>-89.938175999999999</v>
+        <v>-89.543379999999999</v>
       </c>
       <c r="G95">
-        <v>13.748404000000001</v>
+        <v>13.576691</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="3"/>
@@ -4030,27 +4030,27 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>904</v>
+        <v>521</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="E96" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="F96">
-        <v>-88.878798000000003</v>
+        <v>-89.489044000000007</v>
       </c>
       <c r="G96">
-        <v>13.918873</v>
+        <v>13.692014</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="3"/>
@@ -4059,27 +4059,27 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>411</v>
+        <v>522</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F97">
-        <v>-88.924912000000006</v>
+        <v>-89.297370000000001</v>
       </c>
       <c r="G97">
-        <v>14.144793</v>
+        <v>13.575065</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="3"/>
@@ -4088,27 +4088,27 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>509</v>
+        <v>601</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="F98">
-        <v>-89.259011999999998</v>
+        <v>-89.197367</v>
       </c>
       <c r="G98">
-        <v>13.487665</v>
+        <v>13.955029</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="3"/>
@@ -4117,27 +4117,27 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>412</v>
+        <v>602</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="F99">
-        <v>-89.170011000000002</v>
+        <v>-89.196949000000004</v>
       </c>
       <c r="G99">
-        <v>14.292484999999999</v>
+        <v>13.799424999999999</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="3"/>
@@ -4146,27 +4146,27 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>413</v>
+        <v>603</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="F100">
-        <v>-89.148579999999995</v>
+        <v>-89.19614</v>
       </c>
       <c r="G100">
-        <v>14.224978</v>
+        <v>13.751976000000001</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="3"/>
@@ -4175,27 +4175,27 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>1408</v>
+        <v>604</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="F101">
-        <v>-87.952781000000002</v>
+        <v>-89.180302999999995</v>
       </c>
       <c r="G101">
-        <v>13.210755000000001</v>
+        <v>13.776092</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="3"/>
@@ -4204,27 +4204,27 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>428</v>
+        <v>605</v>
       </c>
       <c r="D102" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="F102">
-        <v>-88.836509000000007</v>
+        <v>-89.219438999999994</v>
       </c>
       <c r="G102">
-        <v>14.053934</v>
+        <v>14.008475000000001</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="3"/>
@@ -4233,27 +4233,27 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>414</v>
+        <v>606</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="F103">
-        <v>-88.883808000000002</v>
+        <v>-89.166498000000004</v>
       </c>
       <c r="G103">
-        <v>14.094718</v>
+        <v>13.897197</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="3"/>
@@ -4262,27 +4262,27 @@
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>1409</v>
+        <v>607</v>
       </c>
       <c r="D104" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="F104">
-        <v>-87.908061000000004</v>
+        <v>-89.095429999999993</v>
       </c>
       <c r="G104">
-        <v>13.831614999999999</v>
+        <v>13.692344</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="3"/>
@@ -4291,27 +4291,27 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
       <c r="B105">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>1208</v>
+        <v>608</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F105">
-        <v>-88.348808000000005</v>
+        <v>-89.218783999999999</v>
       </c>
       <c r="G105">
-        <v>13.588687</v>
+        <v>13.737888999999999</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="3"/>
@@ -4320,27 +4320,27 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>1313</v>
+        <v>609</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="F106">
-        <v>-88.077990999999997</v>
+        <v>-89.226279000000005</v>
       </c>
       <c r="G106">
-        <v>13.734498</v>
+        <v>13.840007999999999</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
@@ -4349,27 +4349,27 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>206</v>
+        <v>610</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F107">
-        <v>-89.415676000000005</v>
+        <v>-89.158613000000003</v>
       </c>
       <c r="G107">
-        <v>14.166651</v>
+        <v>13.555818</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="3"/>
@@ -4378,27 +4378,27 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>1314</v>
+        <v>611</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E108" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="F108">
-        <v>-88.130511999999996</v>
+        <v>-89.206269000000006</v>
       </c>
       <c r="G108">
-        <v>13.862627</v>
+        <v>13.539851000000001</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="3"/>
@@ -4407,27 +4407,27 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>1410</v>
+        <v>612</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="F109">
-        <v>-87.711618999999999</v>
+        <v>-89.175399999999996</v>
       </c>
       <c r="G109">
-        <v>13.190242</v>
+        <v>13.658716</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="3"/>
@@ -4436,7 +4436,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4444,19 +4444,19 @@
         <v>6</v>
       </c>
       <c r="C110">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
         <v>205</v>
       </c>
       <c r="F110">
-        <v>-89.218783999999999</v>
+        <v>-89.061976999999999</v>
       </c>
       <c r="G110">
-        <v>13.737888999999999</v>
+        <v>13.735239</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="3"/>
@@ -4465,27 +4465,27 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>804</v>
+        <v>614</v>
       </c>
       <c r="D111" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="E111" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="F111">
-        <v>-88.914023</v>
+        <v>-89.215541999999999</v>
       </c>
       <c r="G111">
-        <v>13.644577</v>
+        <v>13.693429</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="3"/>
@@ -4494,27 +4494,27 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>1111</v>
+        <v>615</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="E112" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="F112">
-        <v>-88.509255999999993</v>
+        <v>-89.095039999999997</v>
       </c>
       <c r="G112">
-        <v>13.568761</v>
+        <v>13.649763</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="3"/>
@@ -4523,27 +4523,27 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>207</v>
+        <v>616</v>
       </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F113">
-        <v>-89.425162</v>
+        <v>-89.143264000000002</v>
       </c>
       <c r="G113">
-        <v>14.314647000000001</v>
+        <v>13.64073</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="3"/>
@@ -4552,27 +4552,27 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
       <c r="B114">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>1209</v>
+        <v>617</v>
       </c>
       <c r="D114" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="E114" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F114">
-        <v>-88.266186000000005</v>
+        <v>-89.143426000000005</v>
       </c>
       <c r="G114">
-        <v>13.548005</v>
+        <v>13.703795</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="3"/>
@@ -4581,27 +4581,27 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>705</v>
+        <v>618</v>
       </c>
       <c r="D115" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="F115">
-        <v>-88.942791</v>
+        <v>-89.118837999999997</v>
       </c>
       <c r="G115">
-        <v>13.774012000000001</v>
+        <v>13.783023</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="3"/>
@@ -4610,27 +4610,27 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>308</v>
+        <v>619</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="E116" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F116">
-        <v>-89.707802999999998</v>
+        <v>-89.160325</v>
       </c>
       <c r="G116">
-        <v>13.799927</v>
+        <v>13.755153999999999</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="3"/>
@@ -4639,27 +4639,27 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>309</v>
+        <v>701</v>
       </c>
       <c r="D117" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F117">
-        <v>-89.721718999999993</v>
+        <v>-88.983258000000006</v>
       </c>
       <c r="G117">
-        <v>13.667832000000001</v>
+        <v>13.682031</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="3"/>
@@ -4668,27 +4668,27 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="D118" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="F118">
-        <v>-89.226279000000005</v>
+        <v>-88.942417000000006</v>
       </c>
       <c r="G118">
-        <v>13.840007999999999</v>
+        <v>13.718187</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="3"/>
@@ -4697,27 +4697,27 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>415</v>
+        <v>703</v>
       </c>
       <c r="D119" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="F119">
-        <v>-88.726536999999993</v>
+        <v>-88.905925999999994</v>
       </c>
       <c r="G119">
-        <v>14.02219</v>
+        <v>13.732532000000001</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="3"/>
@@ -4726,27 +4726,27 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>416</v>
+        <v>704</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="F120">
-        <v>-89.307117000000005</v>
+        <v>-88.904557999999994</v>
       </c>
       <c r="G120">
-        <v>14.110260999999999</v>
+        <v>13.773213999999999</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="3"/>
@@ -4755,27 +4755,27 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>1411</v>
+        <v>705</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E121" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F121">
-        <v>-87.843498999999994</v>
+        <v>-88.942791</v>
       </c>
       <c r="G121">
-        <v>13.822255</v>
+        <v>13.774012000000001</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="3"/>
@@ -4784,27 +4784,27 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>1112</v>
+        <v>706</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E122" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F122">
-        <v>-88.453950000000006</v>
+        <v>-89.055097000000004</v>
       </c>
       <c r="G122">
-        <v>13.639305999999999</v>
+        <v>13.824341</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="3"/>
@@ -4813,27 +4813,27 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C123">
-        <v>1210</v>
+        <v>707</v>
       </c>
       <c r="D123" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="F123">
-        <v>-88.317250999999999</v>
+        <v>-89.062254999999993</v>
       </c>
       <c r="G123">
-        <v>13.537456000000001</v>
+        <v>13.790770999999999</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="3"/>
@@ -4842,27 +4842,27 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C124">
-        <v>417</v>
+        <v>708</v>
       </c>
       <c r="D124" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="F124">
-        <v>-88.800203999999994</v>
+        <v>-88.896704</v>
       </c>
       <c r="G124">
-        <v>14.076162</v>
+        <v>13.687989999999999</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="3"/>
@@ -4871,27 +4871,27 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>510</v>
+        <v>709</v>
       </c>
       <c r="D125" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E125" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="F125">
-        <v>-89.265745999999993</v>
+        <v>-89.096007999999998</v>
       </c>
       <c r="G125">
-        <v>13.643090000000001</v>
+        <v>13.854118</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="3"/>
@@ -4900,27 +4900,27 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C126">
-        <v>1211</v>
+        <v>710</v>
       </c>
       <c r="D126" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="F126">
-        <v>-88.476602999999997</v>
+        <v>-89.015210999999994</v>
       </c>
       <c r="G126">
-        <v>13.794622</v>
+        <v>13.769212</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="3"/>
@@ -4929,27 +4929,27 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>418</v>
+        <v>711</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="F127">
-        <v>-88.866651000000005</v>
+        <v>-88.877313999999998</v>
       </c>
       <c r="G127">
-        <v>14.134334000000001</v>
+        <v>13.741740999999999</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="3"/>
@@ -4958,27 +4958,27 @@
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>805</v>
+        <v>712</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E128" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F128">
-        <v>-89.127092000000005</v>
+        <v>-88.927884000000006</v>
       </c>
       <c r="G128">
-        <v>13.539132</v>
+        <v>13.681065</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="3"/>
@@ -4987,7 +4987,7 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4995,19 +4995,19 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="E129" t="s">
         <v>269</v>
       </c>
       <c r="F129">
-        <v>-89.055097000000004</v>
+        <v>-88.956652000000005</v>
       </c>
       <c r="G129">
-        <v>13.824341</v>
+        <v>13.656829999999999</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="3"/>
@@ -5016,27 +5016,27 @@
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C130">
-        <v>1315</v>
+        <v>714</v>
       </c>
       <c r="D130" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="E130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F130">
-        <v>-88.166284000000005</v>
+        <v>-88.971269000000007</v>
       </c>
       <c r="G130">
-        <v>13.814258000000001</v>
+        <v>13.741885999999999</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="3"/>
@@ -5045,27 +5045,27 @@
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C131">
-        <v>1113</v>
+        <v>715</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E131" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F131">
-        <v>-88.513363999999996</v>
+        <v>-89.072587999999996</v>
       </c>
       <c r="G131">
-        <v>13.37936</v>
+        <v>13.95725</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="3"/>
@@ -5074,27 +5074,27 @@
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="D132" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="F132">
-        <v>-89.158613000000003</v>
+        <v>-88.972037</v>
       </c>
       <c r="G132">
-        <v>13.555818</v>
+        <v>13.825341999999999</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="3"/>
@@ -5103,7 +5103,7 @@
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5111,19 +5111,19 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D133" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="E133" t="s">
         <v>271</v>
       </c>
       <c r="F133">
-        <v>-88.962057000000001</v>
+        <v>-89.091189</v>
       </c>
       <c r="G133">
-        <v>13.632395000000001</v>
+        <v>13.53767</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="3"/>
@@ -5132,27 +5132,27 @@
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
       <c r="B134">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>1412</v>
+        <v>802</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F134">
-        <v>-87.759748999999999</v>
+        <v>-89.004977999999994</v>
       </c>
       <c r="G134">
-        <v>13.476943</v>
+        <v>13.469091000000001</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="3"/>
@@ -5161,27 +5161,27 @@
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
       <c r="B135">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>1316</v>
+        <v>803</v>
       </c>
       <c r="D135" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E135" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F135">
-        <v>-88.157449</v>
+        <v>-88.912621999999999</v>
       </c>
       <c r="G135">
-        <v>13.965342</v>
+        <v>13.658393999999999</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="3"/>
@@ -5190,27 +5190,27 @@
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>1413</v>
+        <v>804</v>
       </c>
       <c r="D136" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F136">
-        <v>-87.797545999999997</v>
+        <v>-88.914023</v>
       </c>
       <c r="G136">
-        <v>13.824313999999999</v>
+        <v>13.644577</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="3"/>
@@ -5219,27 +5219,27 @@
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C137">
-        <v>419</v>
+        <v>805</v>
       </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="F137">
-        <v>-88.899195000000006</v>
+        <v>-89.127092000000005</v>
       </c>
       <c r="G137">
-        <v>13.959758000000001</v>
+        <v>13.539132</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="3"/>
@@ -5248,27 +5248,27 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C138">
-        <v>1114</v>
+        <v>806</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E138" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F138">
-        <v>-88.596295999999995</v>
+        <v>-88.962057000000001</v>
       </c>
       <c r="G138">
-        <v>13.235127</v>
+        <v>13.632395000000001</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="3"/>
@@ -5277,27 +5277,27 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>1212</v>
+        <v>807</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="F139">
-        <v>-88.229388999999998</v>
+        <v>-89.021506000000002</v>
       </c>
       <c r="G139">
-        <v>13.518898999999999</v>
+        <v>13.572317</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="3"/>
@@ -5306,27 +5306,27 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140">
-        <v>512</v>
+        <v>808</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="F140">
-        <v>-89.274473</v>
+        <v>-88.991506000000001</v>
       </c>
       <c r="G140">
-        <v>13.848269</v>
+        <v>13.648489</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="3"/>
@@ -5335,27 +5335,27 @@
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141">
-        <v>611</v>
+        <v>809</v>
       </c>
       <c r="D141" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E141" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="F141">
-        <v>-89.206269000000006</v>
+        <v>-89.072963000000001</v>
       </c>
       <c r="G141">
-        <v>13.539851000000001</v>
+        <v>13.621688000000001</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="3"/>
@@ -5364,27 +5364,27 @@
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>513</v>
+        <v>810</v>
       </c>
       <c r="D142" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="F142">
-        <v>-89.448562999999993</v>
+        <v>-88.921234999999996</v>
       </c>
       <c r="G142">
-        <v>13.736713999999999</v>
+        <v>13.436743999999999</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="3"/>
@@ -5393,27 +5393,27 @@
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>310</v>
+        <v>811</v>
       </c>
       <c r="D143" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="F143">
-        <v>-89.758402000000004</v>
+        <v>-89.090385999999995</v>
       </c>
       <c r="G143">
-        <v>13.82826</v>
+        <v>13.499385999999999</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="3"/>
@@ -5422,27 +5422,27 @@
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
       <c r="B144">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>1115</v>
+        <v>812</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E144" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F144">
-        <v>-88.583121000000006</v>
+        <v>-88.994270999999998</v>
       </c>
       <c r="G144">
-        <v>13.454822</v>
+        <v>13.60033</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="3"/>
@@ -5451,27 +5451,27 @@
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>1414</v>
+        <v>813</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F145">
-        <v>-87.913860999999997</v>
+        <v>-89.092581999999993</v>
       </c>
       <c r="G145">
-        <v>13.443958</v>
+        <v>13.434913</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="3"/>
@@ -5480,27 +5480,27 @@
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>1213</v>
+        <v>814</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="E146" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="F146">
-        <v>-88.271687</v>
+        <v>-89.019837999999993</v>
       </c>
       <c r="G146">
-        <v>13.872128</v>
+        <v>13.632802999999999</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="3"/>
@@ -5509,27 +5509,27 @@
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>420</v>
+        <v>815</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="F147">
-        <v>-88.776737999999995</v>
+        <v>-89.028349000000006</v>
       </c>
       <c r="G147">
-        <v>14.014642</v>
+        <v>13.389711</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="3"/>
@@ -5538,27 +5538,27 @@
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C148">
-        <v>311</v>
+        <v>816</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="E148" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="F148">
-        <v>-89.755437000000001</v>
+        <v>-88.934841000000006</v>
       </c>
       <c r="G148">
-        <v>13.714938</v>
+        <v>13.591343999999999</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="3"/>
@@ -5567,27 +5567,27 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>421</v>
+        <v>817</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="F149">
-        <v>-88.893593999999993</v>
+        <v>-88.921728999999999</v>
       </c>
       <c r="G149">
-        <v>14.001675000000001</v>
+        <v>13.494576</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="3"/>
@@ -5596,7 +5596,7 @@
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -5604,19 +5604,19 @@
         <v>8</v>
       </c>
       <c r="C150">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="D150" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="E150" t="s">
         <v>271</v>
       </c>
       <c r="F150">
-        <v>-89.021506000000002</v>
+        <v>-88.926603</v>
       </c>
       <c r="G150">
-        <v>13.572317</v>
+        <v>13.625913000000001</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="3"/>
@@ -5625,27 +5625,27 @@
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C151">
-        <v>208</v>
+        <v>819</v>
       </c>
       <c r="D151" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="E151" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="F151">
-        <v>-89.555002000000002</v>
+        <v>-88.954757999999998</v>
       </c>
       <c r="G151">
-        <v>14.18805</v>
+        <v>13.487393000000001</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="3"/>
@@ -5654,27 +5654,27 @@
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152">
-        <v>707</v>
+        <v>820</v>
       </c>
       <c r="D152" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F152">
-        <v>-89.062254999999993</v>
+        <v>-89.067274999999995</v>
       </c>
       <c r="G152">
-        <v>13.790770999999999</v>
+        <v>13.549113999999999</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="3"/>
@@ -5683,27 +5683,27 @@
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>1116</v>
+        <v>821</v>
       </c>
       <c r="D153" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="E153" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F153">
-        <v>-88.401769000000002</v>
+        <v>-88.850763000000001</v>
       </c>
       <c r="G153">
-        <v>13.568496</v>
+        <v>13.431327</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="3"/>
@@ -5712,27 +5712,27 @@
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
       <c r="B154">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C154">
-        <v>1317</v>
+        <v>822</v>
       </c>
       <c r="D154" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E154" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F154">
-        <v>-88.113983000000005</v>
+        <v>-88.913365999999996</v>
       </c>
       <c r="G154">
-        <v>13.628714</v>
+        <v>13.333252999999999</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="3"/>
@@ -5741,27 +5741,27 @@
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C155">
-        <v>1003</v>
+        <v>901</v>
       </c>
       <c r="D155" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="E155" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="F155">
-        <v>-88.814712999999998</v>
+        <v>-88.965069</v>
       </c>
       <c r="G155">
-        <v>13.655756</v>
+        <v>13.885799</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="3"/>
@@ -5770,27 +5770,27 @@
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C156">
-        <v>708</v>
+        <v>902</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F156">
-        <v>-88.896704</v>
+        <v>-88.652651000000006</v>
       </c>
       <c r="G156">
-        <v>13.687989999999999</v>
+        <v>13.865202</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="3"/>
@@ -5799,27 +5799,27 @@
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="B157">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C157">
-        <v>1117</v>
+        <v>903</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="E157" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F157">
-        <v>-88.454494999999994</v>
+        <v>-88.819658000000004</v>
       </c>
       <c r="G157">
-        <v>13.293608000000001</v>
+        <v>13.845948</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="3"/>
@@ -5828,27 +5828,27 @@
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158">
-        <v>808</v>
+        <v>904</v>
       </c>
       <c r="D158" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E158" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F158">
-        <v>-88.991506000000001</v>
+        <v>-88.878798000000003</v>
       </c>
       <c r="G158">
-        <v>13.648489</v>
+        <v>13.918873</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="3"/>
@@ -5857,27 +5857,27 @@
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>1006</v>
+        <v>905</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E159" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="F159">
-        <v>-88.743388999999993</v>
+        <v>-88.707115999999999</v>
       </c>
       <c r="G159">
-        <v>13.742666</v>
+        <v>13.827450000000001</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="3"/>
@@ -5886,27 +5886,27 @@
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>422</v>
+        <v>906</v>
       </c>
       <c r="D160" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="F160">
-        <v>-89.042102999999997</v>
+        <v>-88.576347999999996</v>
       </c>
       <c r="G160">
-        <v>14.302222</v>
+        <v>13.875761000000001</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="3"/>
@@ -5915,27 +5915,27 @@
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
       <c r="B161">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>1318</v>
+        <v>907</v>
       </c>
       <c r="D161" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="E161" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F161">
-        <v>-88.202786000000003</v>
+        <v>-88.918094999999994</v>
       </c>
       <c r="G161">
-        <v>13.966297000000001</v>
+        <v>13.859966999999999</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="3"/>
@@ -5944,27 +5944,27 @@
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162">
-        <v>809</v>
+        <v>908</v>
       </c>
       <c r="D162" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="E162" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F162">
-        <v>-89.072963000000001</v>
+        <v>-88.643268000000006</v>
       </c>
       <c r="G162">
-        <v>13.621688000000001</v>
+        <v>13.967167999999999</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="3"/>
@@ -5973,27 +5973,27 @@
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C163">
-        <v>1319</v>
+        <v>909</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="E163" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F163">
-        <v>-88.089684000000005</v>
+        <v>-88.555087999999998</v>
       </c>
       <c r="G163">
-        <v>13.679142000000001</v>
+        <v>13.809269</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="3"/>
@@ -6002,27 +6002,27 @@
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C164">
-        <v>1119</v>
+        <v>999</v>
       </c>
       <c r="D164" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F164">
-        <v>-88.570736999999994</v>
+        <v>-88.144026999999994</v>
       </c>
       <c r="G164">
-        <v>13.410455000000001</v>
+        <v>14.026299</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="3"/>
@@ -6031,27 +6031,27 @@
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>423</v>
+        <v>1001</v>
       </c>
       <c r="D165" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="F165">
-        <v>-89.007048999999995</v>
+        <v>-88.653989999999993</v>
       </c>
       <c r="G165">
-        <v>13.972424999999999</v>
+        <v>13.661255000000001</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="3"/>
@@ -6060,27 +6060,27 @@
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
       <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" s="2">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>1002</v>
       </c>
       <c r="D166" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="F166">
-        <v>-90.034263999999993</v>
+        <v>-88.867095000000006</v>
       </c>
       <c r="G166">
-        <v>13.808198000000001</v>
+        <v>13.615411</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="3"/>
@@ -6089,27 +6089,27 @@
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C167">
-        <v>424</v>
+        <v>1003</v>
       </c>
       <c r="D167" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="F167">
-        <v>-89.055942999999999</v>
+        <v>-88.814712999999998</v>
       </c>
       <c r="G167">
-        <v>14.219716999999999</v>
+        <v>13.655756</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="3"/>
@@ -6118,27 +6118,27 @@
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="B168">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>1214</v>
+        <v>1004</v>
       </c>
       <c r="D168" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E168" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F168">
-        <v>-88.410641999999996</v>
+        <v>-88.664876000000007</v>
       </c>
       <c r="G168">
-        <v>13.815963999999999</v>
+        <v>13.729635</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="3"/>
@@ -6147,27 +6147,27 @@
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>425</v>
+        <v>1005</v>
       </c>
       <c r="D169" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="F169">
-        <v>-89.154038999999997</v>
+        <v>-88.854667000000006</v>
       </c>
       <c r="G169">
-        <v>14.343374000000001</v>
+        <v>13.70532</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="3"/>
@@ -6176,7 +6176,7 @@
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -6184,19 +6184,19 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D170" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E170" t="s">
         <v>209</v>
       </c>
       <c r="F170">
-        <v>-88.562343999999996</v>
+        <v>-88.743388999999993</v>
       </c>
       <c r="G170">
-        <v>13.684805000000001</v>
+        <v>13.742666</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="3"/>
@@ -6205,27 +6205,27 @@
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
       <c r="B171">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C171">
-        <v>905</v>
+        <v>1007</v>
       </c>
       <c r="D171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="F171">
-        <v>-88.707115999999999</v>
+        <v>-88.562343999999996</v>
       </c>
       <c r="G171">
-        <v>13.827450000000001</v>
+        <v>13.684805000000001</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="3"/>
@@ -6234,27 +6234,27 @@
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
       <c r="B172">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C172">
-        <v>1320</v>
+        <v>1008</v>
       </c>
       <c r="D172" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E172" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="F172">
-        <v>-88.240140999999994</v>
+        <v>-88.817677000000003</v>
       </c>
       <c r="G172">
-        <v>13.863162000000001</v>
+        <v>13.693816</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="3"/>
@@ -6263,27 +6263,27 @@
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C173">
-        <v>426</v>
+        <v>1009</v>
       </c>
       <c r="D173" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="F173">
-        <v>-88.832695999999999</v>
+        <v>-88.812614999999994</v>
       </c>
       <c r="G173">
-        <v>14.012031</v>
+        <v>13.752561</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="3"/>
@@ -6292,27 +6292,27 @@
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
       <c r="B174">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C174">
-        <v>1215</v>
+        <v>1010</v>
       </c>
       <c r="D174" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="E174" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F174">
-        <v>-88.332666000000003</v>
+        <v>-88.716740000000001</v>
       </c>
       <c r="G174">
-        <v>13.423698</v>
+        <v>13.580856000000001</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="3"/>
@@ -6321,27 +6321,27 @@
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>5</v>
       </c>
       <c r="B175">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C175">
-        <v>1415</v>
+        <v>1011</v>
       </c>
       <c r="D175" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="E175" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="F175">
-        <v>-87.899052999999995</v>
+        <v>-88.767298999999994</v>
       </c>
       <c r="G175">
-        <v>13.551776</v>
+        <v>13.427554000000001</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="3"/>
@@ -6350,27 +6350,27 @@
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
       <c r="B176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C176">
-        <v>709</v>
+        <v>1012</v>
       </c>
       <c r="D176" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="E176" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="F176">
-        <v>-89.096007999999998</v>
+        <v>-88.839862999999994</v>
       </c>
       <c r="G176">
-        <v>13.854118</v>
+        <v>13.646882</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="3"/>
@@ -6379,27 +6379,27 @@
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
       <c r="B177">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <v>514</v>
+        <v>1013</v>
       </c>
       <c r="D177" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="E177" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="F177">
-        <v>-89.270752999999999</v>
+        <v>-88.871512999999993</v>
       </c>
       <c r="G177">
-        <v>13.558661000000001</v>
+        <v>13.660494999999999</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="3"/>
@@ -6408,27 +6408,27 @@
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
       <c r="B178">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C178">
-        <v>810</v>
+        <v>1101</v>
       </c>
       <c r="D178" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F178">
-        <v>-88.921234999999996</v>
+        <v>-88.490513000000007</v>
       </c>
       <c r="G178">
-        <v>13.436743999999999</v>
+        <v>13.507989999999999</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="3"/>
@@ -6437,27 +6437,27 @@
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C179">
-        <v>515</v>
+        <v>1102</v>
       </c>
       <c r="D179" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="F179">
-        <v>-89.414230000000003</v>
+        <v>-88.591356000000005</v>
       </c>
       <c r="G179">
-        <v>13.899158999999999</v>
+        <v>13.540543</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="3"/>
@@ -6466,27 +6466,27 @@
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>5</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C180">
-        <v>811</v>
+        <v>1103</v>
       </c>
       <c r="D180" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F180">
-        <v>-89.090385999999995</v>
+        <v>-88.458568</v>
       </c>
       <c r="G180">
-        <v>13.499385999999999</v>
+        <v>13.445586</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="3"/>
@@ -6495,27 +6495,27 @@
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C181">
-        <v>812</v>
+        <v>1104</v>
       </c>
       <c r="D181" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="E181" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F181">
-        <v>-88.994270999999998</v>
+        <v>-88.350859999999997</v>
       </c>
       <c r="G181">
-        <v>13.60033</v>
+        <v>13.287991999999999</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="3"/>
@@ -6524,27 +6524,27 @@
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C182">
-        <v>312</v>
+        <v>1105</v>
       </c>
       <c r="D182" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="E182" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F182">
-        <v>-89.562236999999996</v>
+        <v>-88.411833999999999</v>
       </c>
       <c r="G182">
-        <v>13.704753999999999</v>
+        <v>13.608250999999999</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="3"/>
@@ -6553,27 +6553,27 @@
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
       <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183" s="2">
-        <v>109</v>
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>1106</v>
       </c>
       <c r="D183" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F183">
-        <v>-89.792312999999993</v>
+        <v>-88.380346000000003</v>
       </c>
       <c r="G183">
-        <v>14.020670000000001</v>
+        <v>13.350289</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="3"/>
@@ -6582,27 +6582,27 @@
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
       <c r="B184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C184">
-        <v>1008</v>
+        <v>1107</v>
       </c>
       <c r="D184" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E184" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="F184">
-        <v>-88.817677000000003</v>
+        <v>-88.516465999999994</v>
       </c>
       <c r="G184">
-        <v>13.693816</v>
+        <v>13.624159000000001</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="3"/>
@@ -6611,27 +6611,27 @@
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
       <c r="B185">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185">
-        <v>1216</v>
+        <v>1108</v>
       </c>
       <c r="D185" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="E185" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="F185">
-        <v>-88.355680000000007</v>
+        <v>-88.663499999999999</v>
       </c>
       <c r="G185">
-        <v>13.830549</v>
+        <v>13.319293999999999</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="3"/>
@@ -6640,27 +6640,27 @@
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C186">
-        <v>429</v>
+        <v>1109</v>
       </c>
       <c r="D186" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="F186">
-        <v>-88.966695000000001</v>
+        <v>-88.405134000000004</v>
       </c>
       <c r="G186">
-        <v>13.963430000000001</v>
+        <v>13.503441</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="3"/>
@@ -6669,27 +6669,27 @@
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C187">
-        <v>822</v>
+        <v>1110</v>
       </c>
       <c r="D187" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="E187" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F187">
-        <v>-88.913365999999996</v>
+        <v>-88.250601000000003</v>
       </c>
       <c r="G187">
-        <v>13.333252999999999</v>
+        <v>13.219759</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="3"/>
@@ -6698,27 +6698,27 @@
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C188">
-        <v>813</v>
+        <v>1111</v>
       </c>
       <c r="D188" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="E188" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F188">
-        <v>-89.092581999999993</v>
+        <v>-88.509255999999993</v>
       </c>
       <c r="G188">
-        <v>13.434913</v>
+        <v>13.568761</v>
       </c>
       <c r="I188" s="2"/>
       <c r="J188" s="3"/>
@@ -6727,27 +6727,27 @@
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>612</v>
+        <v>1112</v>
       </c>
       <c r="D189" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="E189" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="F189">
-        <v>-89.175399999999996</v>
+        <v>-88.453950000000006</v>
       </c>
       <c r="G189">
-        <v>13.658716</v>
+        <v>13.639305999999999</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="3"/>
@@ -6756,27 +6756,27 @@
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C190">
-        <v>613</v>
+        <v>1113</v>
       </c>
       <c r="D190" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E190" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="F190">
-        <v>-89.061976999999999</v>
+        <v>-88.513363999999996</v>
       </c>
       <c r="G190">
-        <v>13.735239</v>
+        <v>13.37936</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="3"/>
@@ -6785,27 +6785,27 @@
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C191">
-        <v>516</v>
+        <v>1114</v>
       </c>
       <c r="D191" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="F191">
-        <v>-89.306303999999997</v>
+        <v>-88.596295999999995</v>
       </c>
       <c r="G191">
-        <v>13.899663</v>
+        <v>13.235127</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="3"/>
@@ -6814,27 +6814,27 @@
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
       <c r="B192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C192">
-        <v>1217</v>
+        <v>1115</v>
       </c>
       <c r="D192" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E192" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="F192">
-        <v>-88.157652999999996</v>
+        <v>-88.583121000000006</v>
       </c>
       <c r="G192">
-        <v>13.436657</v>
+        <v>13.454822</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="3"/>
@@ -6843,27 +6843,27 @@
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C193">
-        <v>430</v>
+        <v>1116</v>
       </c>
       <c r="D193" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E193" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="F193">
-        <v>-88.934590999999998</v>
+        <v>-88.401769000000002</v>
       </c>
       <c r="G193">
-        <v>13.99752</v>
+        <v>13.568496</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="3"/>
@@ -6872,27 +6872,27 @@
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C194">
-        <v>814</v>
+        <v>1117</v>
       </c>
       <c r="D194" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="E194" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F194">
-        <v>-89.019837999999993</v>
+        <v>-88.454494999999994</v>
       </c>
       <c r="G194">
-        <v>13.632802999999999</v>
+        <v>13.293608000000001</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="3"/>
@@ -6901,27 +6901,27 @@
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
       <c r="B195">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>517</v>
+        <v>1118</v>
       </c>
       <c r="D195" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E195" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="F195">
-        <v>-89.330748999999997</v>
+        <v>-88.415029000000004</v>
       </c>
       <c r="G195">
-        <v>13.999613</v>
+        <v>13.41311</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="3"/>
@@ -6930,27 +6930,27 @@
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C196">
-        <v>815</v>
+        <v>1119</v>
       </c>
       <c r="D196" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E196" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F196">
-        <v>-89.028349000000006</v>
+        <v>-88.570736999999994</v>
       </c>
       <c r="G196">
-        <v>13.389711</v>
+        <v>13.410455000000001</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="3"/>
@@ -6959,27 +6959,27 @@
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
       <c r="B197">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C197">
-        <v>816</v>
+        <v>1120</v>
       </c>
       <c r="D197" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E197" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F197">
-        <v>-88.934841000000006</v>
+        <v>-88.407577000000003</v>
       </c>
       <c r="G197">
-        <v>13.591343999999999</v>
+        <v>13.341666999999999</v>
       </c>
       <c r="I197" s="2"/>
       <c r="J197" s="3"/>
@@ -6988,27 +6988,27 @@
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
       <c r="B198">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C198">
-        <v>710</v>
+        <v>1121</v>
       </c>
       <c r="D198" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E198" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F198">
-        <v>-89.015210999999994</v>
+        <v>-88.452633000000006</v>
       </c>
       <c r="G198">
-        <v>13.769212</v>
+        <v>13.488192</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="3"/>
@@ -7017,27 +7017,27 @@
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
       <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199" s="2">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="C199">
+        <v>1122</v>
       </c>
       <c r="D199" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="E199" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F199">
-        <v>-89.806254999999993</v>
+        <v>-88.505747999999997</v>
       </c>
       <c r="G199">
-        <v>13.773635000000001</v>
+        <v>13.433548</v>
       </c>
       <c r="I199" s="2"/>
       <c r="J199" s="3"/>
@@ -7046,27 +7046,27 @@
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C200">
-        <v>431</v>
+        <v>1123</v>
       </c>
       <c r="D200" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="E200" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="F200">
-        <v>-89.043177999999997</v>
+        <v>-88.482439999999997</v>
       </c>
       <c r="G200">
-        <v>14.123768</v>
+        <v>13.262859000000001</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="3"/>
@@ -7075,27 +7075,27 @@
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
       <c r="B201">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C201">
-        <v>711</v>
+        <v>1201</v>
       </c>
       <c r="D201" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="F201">
-        <v>-88.877313999999998</v>
+        <v>-88.309945999999997</v>
       </c>
       <c r="G201">
-        <v>13.741740999999999</v>
+        <v>13.85852</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="3"/>
@@ -7104,27 +7104,27 @@
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C202">
-        <v>817</v>
+        <v>1202</v>
       </c>
       <c r="D202" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="E202" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="F202">
-        <v>-88.921728999999999</v>
+        <v>-88.290623999999994</v>
       </c>
       <c r="G202">
-        <v>13.494576</v>
+        <v>13.757982</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="3"/>
@@ -7133,7 +7133,7 @@
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -7141,19 +7141,19 @@
         <v>12</v>
       </c>
       <c r="C203">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="D203" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="E203" t="s">
         <v>192</v>
       </c>
       <c r="F203">
-        <v>-88.353688000000005</v>
+        <v>-88.058049999999994</v>
       </c>
       <c r="G203">
-        <v>13.386218</v>
+        <v>13.535539999999999</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="3"/>
@@ -7162,27 +7162,27 @@
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C204">
-        <v>712</v>
+        <v>1204</v>
       </c>
       <c r="D204" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="F204">
-        <v>-88.927884000000006</v>
+        <v>-88.273900999999995</v>
       </c>
       <c r="G204">
-        <v>13.681065</v>
+        <v>13.633615000000001</v>
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="3"/>
@@ -7191,27 +7191,27 @@
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C205">
-        <v>614</v>
+        <v>1205</v>
       </c>
       <c r="D205" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="E205" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F205">
-        <v>-89.215541999999999</v>
+        <v>-88.339223000000004</v>
       </c>
       <c r="G205">
-        <v>13.693429</v>
+        <v>13.479277</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="3"/>
@@ -7220,27 +7220,27 @@
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C206">
-        <v>1009</v>
+        <v>1206</v>
       </c>
       <c r="D206" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="E206" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F206">
-        <v>-88.812614999999994</v>
+        <v>-88.129050000000007</v>
       </c>
       <c r="G206">
-        <v>13.752561</v>
+        <v>13.262335</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="3"/>
@@ -7249,27 +7249,27 @@
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C207">
-        <v>209</v>
+        <v>1207</v>
       </c>
       <c r="D207" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="E207" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F207">
-        <v>-89.637238999999994</v>
+        <v>-88.271995000000004</v>
       </c>
       <c r="G207">
-        <v>13.972355</v>
+        <v>13.348979</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="3"/>
@@ -7278,27 +7278,27 @@
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
       <c r="B208">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C208">
-        <v>1321</v>
+        <v>1208</v>
       </c>
       <c r="D208" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="E208" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="F208">
-        <v>-88.235798000000003</v>
+        <v>-88.348808000000005</v>
       </c>
       <c r="G208">
-        <v>13.809486</v>
+        <v>13.588687</v>
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="3"/>
@@ -7307,27 +7307,27 @@
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C209">
-        <v>1010</v>
+        <v>1209</v>
       </c>
       <c r="D209" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="E209" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F209">
-        <v>-88.716740000000001</v>
+        <v>-88.266186000000005</v>
       </c>
       <c r="G209">
-        <v>13.580856000000001</v>
+        <v>13.548005</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="3"/>
@@ -7336,27 +7336,27 @@
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C210">
-        <v>210</v>
+        <v>1210</v>
       </c>
       <c r="D210" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="E210" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F210">
-        <v>-89.548679000000007</v>
+        <v>-88.317250999999999</v>
       </c>
       <c r="G210">
-        <v>13.97744</v>
+        <v>13.537456000000001</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="3"/>
@@ -7365,27 +7365,27 @@
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C211">
-        <v>313</v>
+        <v>1211</v>
       </c>
       <c r="D211" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="E211" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="F211">
-        <v>-89.773240999999999</v>
+        <v>-88.476602999999997</v>
       </c>
       <c r="G211">
-        <v>13.784274999999999</v>
+        <v>13.794622</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="3"/>
@@ -7394,27 +7394,27 @@
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C212">
-        <v>1004</v>
+        <v>1212</v>
       </c>
       <c r="D212" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="E212" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F212">
-        <v>-88.664876000000007</v>
+        <v>-88.229388999999998</v>
       </c>
       <c r="G212">
-        <v>13.729635</v>
+        <v>13.518898999999999</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="3"/>
@@ -7423,27 +7423,27 @@
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>5</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C213">
-        <v>713</v>
+        <v>1213</v>
       </c>
       <c r="D213" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="E213" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="F213">
-        <v>-88.956652000000005</v>
+        <v>-88.271687</v>
       </c>
       <c r="G213">
-        <v>13.656829999999999</v>
+        <v>13.872128</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="3"/>
@@ -7452,27 +7452,27 @@
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
       <c r="B214">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C214">
-        <v>714</v>
+        <v>1214</v>
       </c>
       <c r="D214" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="E214" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="F214">
-        <v>-88.971269000000007</v>
+        <v>-88.410641999999996</v>
       </c>
       <c r="G214">
-        <v>13.741885999999999</v>
+        <v>13.815963999999999</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="3"/>
@@ -7481,27 +7481,27 @@
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C215">
-        <v>1118</v>
+        <v>1215</v>
       </c>
       <c r="D215" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="E215" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="F215">
-        <v>-88.415029000000004</v>
+        <v>-88.332666000000003</v>
       </c>
       <c r="G215">
-        <v>13.41311</v>
+        <v>13.423698</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="3"/>
@@ -7510,27 +7510,27 @@
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C216">
-        <v>305</v>
+        <v>1216</v>
       </c>
       <c r="D216" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="E216" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="F216">
-        <v>-89.594312000000002</v>
+        <v>-88.355680000000007</v>
       </c>
       <c r="G216">
-        <v>13.591691000000001</v>
+        <v>13.830549</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="3"/>
@@ -7539,27 +7539,27 @@
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>5</v>
       </c>
       <c r="B217">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C217">
-        <v>1120</v>
+        <v>1217</v>
       </c>
       <c r="D217" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E217" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="F217">
-        <v>-88.407577000000003</v>
+        <v>-88.157652999999996</v>
       </c>
       <c r="G217">
-        <v>13.341666999999999</v>
+        <v>13.436657</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="3"/>
@@ -7568,27 +7568,27 @@
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C218">
-        <v>818</v>
+        <v>1218</v>
       </c>
       <c r="D218" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E218" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="F218">
-        <v>-88.926603</v>
+        <v>-88.353688000000005</v>
       </c>
       <c r="G218">
-        <v>13.625913000000001</v>
+        <v>13.386218</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="3"/>
@@ -7597,27 +7597,27 @@
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C219">
-        <v>432</v>
+        <v>1219</v>
       </c>
       <c r="D219" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="F219">
-        <v>-89.019508000000002</v>
+        <v>-88.390704999999997</v>
       </c>
       <c r="G219">
-        <v>14.090287</v>
+        <v>13.709942</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="3"/>
@@ -7626,27 +7626,27 @@
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
       <c r="B220">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>1416</v>
+        <v>1220</v>
       </c>
       <c r="D220" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="E220" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="F220">
-        <v>-87.90307</v>
+        <v>-88.059788999999995</v>
       </c>
       <c r="G220">
-        <v>13.641738</v>
+        <v>13.491766</v>
       </c>
       <c r="I220" s="2"/>
       <c r="J220" s="3"/>
@@ -7655,27 +7655,27 @@
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>211</v>
+        <v>1301</v>
       </c>
       <c r="D221" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F221">
-        <v>-89.341721000000007</v>
+        <v>-88.113326000000001</v>
       </c>
       <c r="G221">
-        <v>14.189595000000001</v>
+        <v>13.950165999999999</v>
       </c>
       <c r="I221" s="2"/>
       <c r="J221" s="3"/>
@@ -7684,27 +7684,27 @@
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C222">
-        <v>511</v>
+        <v>1302</v>
       </c>
       <c r="D222" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="E222" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="F222">
-        <v>-89.309415000000001</v>
+        <v>-88.054334999999995</v>
       </c>
       <c r="G222">
-        <v>13.647899000000001</v>
+        <v>13.806561</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="3"/>
@@ -7713,27 +7713,27 @@
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C223">
-        <v>212</v>
+        <v>1303</v>
       </c>
       <c r="D223" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="E223" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F223">
-        <v>-89.622512999999998</v>
+        <v>-87.976284000000007</v>
       </c>
       <c r="G223">
-        <v>14.173164999999999</v>
+        <v>13.819467</v>
       </c>
       <c r="I223" s="2"/>
       <c r="J223" s="3"/>
@@ -7742,27 +7742,27 @@
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
       <c r="B224">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C224">
-        <v>1121</v>
+        <v>1304</v>
       </c>
       <c r="D224" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="E224" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F224">
-        <v>-88.452633000000006</v>
+        <v>-88.158133000000007</v>
       </c>
       <c r="G224">
-        <v>13.488192</v>
+        <v>13.733219999999999</v>
       </c>
       <c r="I224" s="2"/>
       <c r="J224" s="3"/>
@@ -7771,27 +7771,27 @@
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
       <c r="B225">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C225">
-        <v>819</v>
+        <v>1305</v>
       </c>
       <c r="D225" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="E225" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F225">
-        <v>-88.954757999999998</v>
+        <v>-88.146944000000005</v>
       </c>
       <c r="G225">
-        <v>13.487393000000001</v>
+        <v>13.785527</v>
       </c>
       <c r="I225" s="2"/>
       <c r="J225" s="3"/>
@@ -7800,27 +7800,27 @@
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C226">
-        <v>615</v>
+        <v>1306</v>
       </c>
       <c r="D226" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="E226" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="F226">
-        <v>-89.095039999999997</v>
+        <v>-88.083719000000002</v>
       </c>
       <c r="G226">
-        <v>13.649763</v>
+        <v>13.591760000000001</v>
       </c>
       <c r="I226" s="2"/>
       <c r="J226" s="3"/>
@@ -7829,27 +7829,27 @@
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>1005</v>
+        <v>1307</v>
       </c>
       <c r="D227" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="E227" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="F227">
-        <v>-88.854667000000006</v>
+        <v>-88.199566000000004</v>
       </c>
       <c r="G227">
-        <v>13.70532</v>
+        <v>13.866830999999999</v>
       </c>
       <c r="I227" s="2"/>
       <c r="J227" s="3"/>
@@ -7858,27 +7858,27 @@
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C228">
-        <v>314</v>
+        <v>1308</v>
       </c>
       <c r="D228" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="E228" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="F228">
-        <v>-89.797787</v>
+        <v>-88.203720000000004</v>
       </c>
       <c r="G228">
-        <v>13.715138</v>
+        <v>13.808695999999999</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="3"/>
@@ -7887,27 +7887,27 @@
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C229">
-        <v>616</v>
+        <v>1309</v>
       </c>
       <c r="D229" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="E229" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="F229">
-        <v>-89.143264000000002</v>
+        <v>-88.224378000000002</v>
       </c>
       <c r="G229">
-        <v>13.64073</v>
+        <v>13.681922999999999</v>
       </c>
       <c r="I229" s="2"/>
       <c r="J229" s="3"/>
@@ -7916,7 +7916,7 @@
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -7924,19 +7924,19 @@
         <v>13</v>
       </c>
       <c r="C230">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="D230" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="E230" t="s">
         <v>268</v>
       </c>
       <c r="F230">
-        <v>-88.151544999999999</v>
+        <v>-88.063986</v>
       </c>
       <c r="G230">
-        <v>13.680993000000001</v>
+        <v>13.893283</v>
       </c>
       <c r="I230" s="2"/>
       <c r="J230" s="3"/>
@@ -7945,27 +7945,27 @@
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
       <c r="B231">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C231">
-        <v>906</v>
+        <v>1311</v>
       </c>
       <c r="D231" t="s">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="E231" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F231">
-        <v>-88.576347999999996</v>
+        <v>-88.161929999999998</v>
       </c>
       <c r="G231">
-        <v>13.875761000000001</v>
+        <v>13.901446</v>
       </c>
       <c r="I231" s="2"/>
       <c r="J231" s="3"/>
@@ -7974,27 +7974,27 @@
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>5</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C232">
-        <v>1219</v>
+        <v>1312</v>
       </c>
       <c r="D232" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="E232" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="F232">
-        <v>-88.390704999999997</v>
+        <v>-88.013986000000003</v>
       </c>
       <c r="G232">
-        <v>13.709942</v>
+        <v>13.617787</v>
       </c>
       <c r="I232" s="2"/>
       <c r="J232" s="3"/>
@@ -8003,7 +8003,7 @@
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -8011,19 +8011,19 @@
         <v>13</v>
       </c>
       <c r="C233">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="D233" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="E233" t="s">
         <v>268</v>
       </c>
       <c r="F233">
-        <v>-87.995634999999993</v>
+        <v>-88.077990999999997</v>
       </c>
       <c r="G233">
-        <v>13.694475000000001</v>
+        <v>13.734498</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="3"/>
@@ -8032,27 +8032,27 @@
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>5</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C234">
-        <v>315</v>
+        <v>1314</v>
       </c>
       <c r="D234" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="E234" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="F234">
-        <v>-89.761364</v>
+        <v>-88.130511999999996</v>
       </c>
       <c r="G234">
-        <v>13.607746000000001</v>
+        <v>13.862627</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="3"/>
@@ -8061,27 +8061,27 @@
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C235">
-        <v>316</v>
+        <v>1315</v>
       </c>
       <c r="D235" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="E235" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="F235">
-        <v>-89.715070999999995</v>
+        <v>-88.166284000000005</v>
       </c>
       <c r="G235">
-        <v>13.733936</v>
+        <v>13.814258000000001</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="3"/>
@@ -8090,27 +8090,27 @@
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
       <c r="B236">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C236">
-        <v>617</v>
+        <v>1316</v>
       </c>
       <c r="D236" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="E236" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="F236">
-        <v>-89.143426000000005</v>
+        <v>-88.157449</v>
       </c>
       <c r="G236">
-        <v>13.703795</v>
+        <v>13.965342</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="3"/>
@@ -8119,27 +8119,27 @@
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>5</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C237">
-        <v>715</v>
+        <v>1317</v>
       </c>
       <c r="D237" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="E237" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F237">
-        <v>-89.072587999999996</v>
+        <v>-88.113983000000005</v>
       </c>
       <c r="G237">
-        <v>13.95725</v>
+        <v>13.628714</v>
       </c>
       <c r="I237" s="2"/>
       <c r="J237" s="3"/>
@@ -8148,27 +8148,27 @@
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
       <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238" s="2">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="C238">
+        <v>1318</v>
       </c>
       <c r="D238" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="E238" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F238">
-        <v>-89.951562999999993</v>
+        <v>-88.202786000000003</v>
       </c>
       <c r="G238">
-        <v>13.893211000000001</v>
+        <v>13.966297000000001</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="3"/>
@@ -8177,27 +8177,27 @@
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C239">
-        <v>519</v>
+        <v>1319</v>
       </c>
       <c r="D239" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="E239" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="F239">
-        <v>-89.396244999999993</v>
+        <v>-88.089684000000005</v>
       </c>
       <c r="G239">
-        <v>13.675077999999999</v>
+        <v>13.679142000000001</v>
       </c>
       <c r="I239" s="2"/>
       <c r="J239" s="3"/>
@@ -8206,27 +8206,27 @@
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>5</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <v>518</v>
+        <v>1320</v>
       </c>
       <c r="D240" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="E240" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="F240">
-        <v>-89.412458999999998</v>
+        <v>-88.240140999999994</v>
       </c>
       <c r="G240">
-        <v>13.566088000000001</v>
+        <v>13.863162000000001</v>
       </c>
       <c r="I240" s="2"/>
       <c r="J240" s="3"/>
@@ -8235,27 +8235,27 @@
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>5</v>
       </c>
       <c r="B241">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C241">
-        <v>820</v>
+        <v>1321</v>
       </c>
       <c r="D241" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="E241" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F241">
-        <v>-89.067274999999995</v>
+        <v>-88.235798000000003</v>
       </c>
       <c r="G241">
-        <v>13.549113999999999</v>
+        <v>13.809486</v>
       </c>
       <c r="I241" s="2"/>
       <c r="J241" s="3"/>
@@ -8264,27 +8264,27 @@
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>5</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C242">
-        <v>1122</v>
+        <v>1322</v>
       </c>
       <c r="D242" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F242">
-        <v>-88.505747999999997</v>
+        <v>-88.151544999999999</v>
       </c>
       <c r="G242">
-        <v>13.433548</v>
+        <v>13.680993000000001</v>
       </c>
       <c r="I242" s="2"/>
       <c r="J242" s="3"/>
@@ -8293,27 +8293,27 @@
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
       <c r="B243">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C243">
-        <v>1011</v>
+        <v>1323</v>
       </c>
       <c r="D243" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E243" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="F243">
-        <v>-88.767298999999994</v>
+        <v>-87.995634999999993</v>
       </c>
       <c r="G243">
-        <v>13.427554000000001</v>
+        <v>13.694475000000001</v>
       </c>
       <c r="I243" s="2"/>
       <c r="J243" s="3"/>
@@ -8322,27 +8322,27 @@
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
       <c r="B244">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C244">
-        <v>907</v>
+        <v>1324</v>
       </c>
       <c r="D244" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E244" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F244">
-        <v>-88.918094999999994</v>
+        <v>-88.227382000000006</v>
       </c>
       <c r="G244">
-        <v>13.859966999999999</v>
+        <v>13.91123</v>
       </c>
       <c r="I244" s="2"/>
       <c r="J244" s="3"/>
@@ -8351,27 +8351,27 @@
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>5</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>433</v>
+        <v>1325</v>
       </c>
       <c r="D245" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E245" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="F245">
-        <v>-89.122792000000004</v>
+        <v>-88.176061000000004</v>
       </c>
       <c r="G245">
-        <v>14.147575</v>
+        <v>13.645421000000001</v>
       </c>
       <c r="I245" s="2"/>
       <c r="J245" s="3"/>
@@ -8380,27 +8380,27 @@
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
       <c r="B246">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C246">
-        <v>716</v>
+        <v>1326</v>
       </c>
       <c r="D246" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E246" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F246">
-        <v>-88.972037</v>
+        <v>-88.132830999999996</v>
       </c>
       <c r="G246">
-        <v>13.825341999999999</v>
+        <v>13.763154999999999</v>
       </c>
       <c r="I246" s="2"/>
       <c r="J246" s="3"/>
@@ -8409,27 +8409,27 @@
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
       <c r="B247">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C247">
-        <v>520</v>
+        <v>1401</v>
       </c>
       <c r="D247" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="F247">
-        <v>-89.543379999999999</v>
+        <v>-87.888739999999999</v>
       </c>
       <c r="G247">
-        <v>13.576691</v>
+        <v>13.732329999999999</v>
       </c>
       <c r="I247" s="2"/>
       <c r="J247" s="3"/>
@@ -8438,27 +8438,27 @@
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C248">
-        <v>521</v>
+        <v>1402</v>
       </c>
       <c r="D248" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="E248" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="F248">
-        <v>-89.489044000000007</v>
+        <v>-87.949792000000002</v>
       </c>
       <c r="G248">
-        <v>13.692014</v>
+        <v>13.55925</v>
       </c>
       <c r="I248" s="2"/>
       <c r="J248" s="3"/>
@@ -8467,27 +8467,27 @@
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C249">
-        <v>1012</v>
+        <v>1403</v>
       </c>
       <c r="D249" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="E249" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="F249">
-        <v>-88.839862999999994</v>
+        <v>-87.745835999999997</v>
       </c>
       <c r="G249">
-        <v>13.646882</v>
+        <v>13.785883</v>
       </c>
       <c r="I249" s="2"/>
       <c r="J249" s="3"/>
@@ -8496,27 +8496,27 @@
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C250">
-        <v>213</v>
+        <v>1404</v>
       </c>
       <c r="D250" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="E250" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="F250">
-        <v>-89.493753999999996</v>
+        <v>-87.880917999999994</v>
       </c>
       <c r="G250">
-        <v>14.117232</v>
+        <v>13.27913</v>
       </c>
       <c r="I250" s="2"/>
       <c r="J250" s="3"/>
@@ -8525,27 +8525,27 @@
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
       <c r="B251">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C251">
-        <v>618</v>
+        <v>1405</v>
       </c>
       <c r="D251" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="E251" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="F251">
-        <v>-89.118837999999997</v>
+        <v>-87.992841999999996</v>
       </c>
       <c r="G251">
-        <v>13.783023</v>
+        <v>13.317375999999999</v>
       </c>
       <c r="I251" s="2"/>
       <c r="J251" s="3"/>
@@ -8554,27 +8554,27 @@
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
       <c r="B252">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C252">
-        <v>1324</v>
+        <v>1406</v>
       </c>
       <c r="D252" t="s">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="E252" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F252">
-        <v>-88.227382000000006</v>
+        <v>-87.797155000000004</v>
       </c>
       <c r="G252">
-        <v>13.91123</v>
+        <v>13.671422</v>
       </c>
       <c r="I252" s="2"/>
       <c r="J252" s="3"/>
@@ -8583,27 +8583,27 @@
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
       <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253" s="2">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="C253">
+        <v>1407</v>
       </c>
       <c r="D253" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="E253" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F253">
-        <v>-89.774410000000003</v>
+        <v>-88.034446000000003</v>
       </c>
       <c r="G253">
-        <v>13.962699000000001</v>
+        <v>13.204611</v>
       </c>
       <c r="I253" s="2"/>
       <c r="J253" s="3"/>
@@ -8612,27 +8612,27 @@
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
       <c r="B254">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C254">
-        <v>1220</v>
+        <v>1408</v>
       </c>
       <c r="D254" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="E254" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="F254">
-        <v>-88.059788999999995</v>
+        <v>-87.952781000000002</v>
       </c>
       <c r="G254">
-        <v>13.491766</v>
+        <v>13.210755000000001</v>
       </c>
       <c r="I254" s="2"/>
       <c r="J254" s="3"/>
@@ -8641,27 +8641,27 @@
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
       <c r="B255">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C255">
-        <v>1123</v>
+        <v>1409</v>
       </c>
       <c r="D255" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="E255" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F255">
-        <v>-88.482439999999997</v>
+        <v>-87.908061000000004</v>
       </c>
       <c r="G255">
-        <v>13.262859000000001</v>
+        <v>13.831614999999999</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="3"/>
@@ -8670,27 +8670,27 @@
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
       <c r="B256">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C256">
-        <v>1013</v>
+        <v>1410</v>
       </c>
       <c r="D256" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="E256" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="F256">
-        <v>-88.871512999999993</v>
+        <v>-87.711618999999999</v>
       </c>
       <c r="G256">
-        <v>13.660494999999999</v>
+        <v>13.190242</v>
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="3"/>
@@ -8699,27 +8699,27 @@
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C257">
-        <v>908</v>
+        <v>1411</v>
       </c>
       <c r="D257" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="E257" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F257">
-        <v>-88.643268000000006</v>
+        <v>-87.843498999999994</v>
       </c>
       <c r="G257">
-        <v>13.967167999999999</v>
+        <v>13.822255</v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="3"/>
@@ -8728,27 +8728,27 @@
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
       <c r="B258">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C258">
-        <v>1325</v>
+        <v>1412</v>
       </c>
       <c r="D258" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="E258" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F258">
-        <v>-88.176061000000004</v>
+        <v>-87.759748999999999</v>
       </c>
       <c r="G258">
-        <v>13.645421000000001</v>
+        <v>13.476943</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="3"/>
@@ -8757,7 +8757,7 @@
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -8765,19 +8765,19 @@
         <v>14</v>
       </c>
       <c r="C259">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D259" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="E259" t="s">
         <v>267</v>
       </c>
       <c r="F259">
-        <v>-88.020249000000007</v>
+        <v>-87.797545999999997</v>
       </c>
       <c r="G259">
-        <v>13.446254</v>
+        <v>13.824313999999999</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="3"/>
@@ -8786,27 +8786,27 @@
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>5</v>
       </c>
       <c r="B260">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C260">
-        <v>1326</v>
+        <v>1414</v>
       </c>
       <c r="D260" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="E260" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F260">
-        <v>-88.132830999999996</v>
+        <v>-87.913860999999997</v>
       </c>
       <c r="G260">
-        <v>13.763154999999999</v>
+        <v>13.443958</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="3"/>
@@ -8815,7 +8815,7 @@
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -8823,19 +8823,19 @@
         <v>14</v>
       </c>
       <c r="C261">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D261" t="s">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="E261" t="s">
         <v>267</v>
       </c>
       <c r="F261">
-        <v>-87.997708000000003</v>
+        <v>-87.899052999999995</v>
       </c>
       <c r="G261">
-        <v>13.533868</v>
+        <v>13.551776</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="3"/>
@@ -8844,27 +8844,27 @@
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>5</v>
       </c>
       <c r="B262">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C262">
-        <v>821</v>
+        <v>1416</v>
       </c>
       <c r="D262" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="E262" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F262">
-        <v>-88.850763000000001</v>
+        <v>-87.90307</v>
       </c>
       <c r="G262">
-        <v>13.431327</v>
+        <v>13.641738</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="3"/>
@@ -8873,27 +8873,27 @@
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C263">
-        <v>522</v>
+        <v>1417</v>
       </c>
       <c r="D263" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E263" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="F263">
-        <v>-89.297370000000001</v>
+        <v>-88.020249000000007</v>
       </c>
       <c r="G263">
-        <v>13.575065</v>
+        <v>13.446254</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="3"/>
@@ -8902,27 +8902,27 @@
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>5</v>
       </c>
       <c r="B264">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C264">
-        <v>999</v>
+        <v>1418</v>
       </c>
       <c r="D264" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E264" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F264">
-        <v>-88.144026999999994</v>
+        <v>-87.997708000000003</v>
       </c>
       <c r="G264">
-        <v>14.026299</v>
+        <v>13.533868</v>
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="3"/>
@@ -8931,7 +8931,7 @@
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I265" s="2"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
